--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">数据预处理
 </t>
     </r>
@@ -145,6 +152,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">线性模型
 </t>
     </r>
@@ -243,7 +257,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">评估指标
+      <t xml:space="preserve">#决策树
 </t>
     </r>
     <r>
@@ -266,7 +280,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sklearn.metrics</t>
+      <t>sklearn.tree</t>
     </r>
     <r>
       <rPr>
@@ -277,36 +291,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> as sm</t>
-    </r>
-  </si>
-  <si>
-    <t>平均绝对误差-MAE</t>
-  </si>
-  <si>
-    <t>sm.mean_absolute_error</t>
-  </si>
-  <si>
-    <t>均方误差-MSE</t>
-  </si>
-  <si>
-    <t>sm.mean_squared_error</t>
-  </si>
-  <si>
-    <t>中位数绝对偏差-MAD：</t>
-  </si>
-  <si>
-    <t>sm.median_absolute_error</t>
-  </si>
-  <si>
-    <t>r2_score：</t>
-  </si>
-  <si>
-    <t>sm.r2_score</t>
-  </si>
-  <si>
-    <r>
-      <t>加载与保存模型</t>
+      <t xml:space="preserve"> as st</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">相似的输入必会产生相似的输出
+</t>
+  </si>
+  <si>
+    <t>model = st.DecisionTreeRegressor
+(max_depth=4,
+random_state = 7  # #模型的随机种子
+);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">集成学习
+</t>
     </r>
     <r>
       <rPr>
@@ -317,8 +318,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-import </t>
+      <t xml:space="preserve">import </t>
     </r>
     <r>
       <rPr>
@@ -329,7 +329,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pickle</t>
+      <t>sklearn.ensemble</t>
     </r>
     <r>
       <rPr>
@@ -340,6 +340,158 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> as se</t>
+    </r>
+  </si>
+  <si>
+    <t>正向激励、自适应、增强 : ada_boost</t>
+  </si>
+  <si>
+    <t>每棵树有的联系</t>
+  </si>
+  <si>
+    <t>model = se.AdaBoostRegressor</t>
+  </si>
+  <si>
+    <t>它的子模型可以是： 线性模型、
+岭回归、
+多项式回归 、决策树</t>
+  </si>
+  <si>
+    <t>梯度提升：gbdt
+（内部默认是：决策树）</t>
+  </si>
+  <si>
+    <t>model = se.GradientBoostingRegressor</t>
+  </si>
+  <si>
+    <t>残差:"
+实际目标值"与"当前模型预测值"之间的差异,
+也就是y'−y，不断拟合残差</t>
+  </si>
+  <si>
+    <t>随机森林
+（内部默认是：决策树）</t>
+  </si>
+  <si>
+    <t>每棵树无联系</t>
+  </si>
+  <si>
+    <t>model = se.RandomForestRegressor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">评估指标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm</t>
+    </r>
+  </si>
+  <si>
+    <t>平均绝对误差-MAE</t>
+  </si>
+  <si>
+    <t>sm.mean_absolute_error</t>
+  </si>
+  <si>
+    <t>均方误差-MSE</t>
+  </si>
+  <si>
+    <t>sm.mean_squared_error</t>
+  </si>
+  <si>
+    <t>中位数绝对偏差-MAD：</t>
+  </si>
+  <si>
+    <t>sm.median_absolute_error</t>
+  </si>
+  <si>
+    <t>r2_score：</t>
+  </si>
+  <si>
+    <t>sm.r2_score</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加载与保存模型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pickle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -350,6 +502,62 @@
     <t>pickle.load</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">训练集和测试集划分
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.model_selection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as ms</t>
+    </r>
+  </si>
+  <si>
+    <t>train_x,test_x,train_y,test_y 
+= ms.train_test_split(x,y,
+                        test_size=0.2,
+                        random_state= 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要设置：划分比例，随机种子
+</t>
+  </si>
+  <si>
+    <t>根据R2得分来选择模型</t>
+  </si>
+  <si>
     <t>业务场景</t>
   </si>
   <si>
@@ -362,15 +570,15 @@
     <t>参数说明</t>
   </si>
   <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>数据特点</t>
+  </si>
+  <si>
     <t>格式样本</t>
   </si>
   <si>
-    <t>特征</t>
-  </si>
-  <si>
-    <t>数据特点</t>
-  </si>
-  <si>
     <t>预测薪资</t>
   </si>
   <si>
@@ -378,6 +586,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>#（1）创建模型</t>
     </r>
     <r>
@@ -464,6 +680,10 @@
   </si>
   <si>
     <t>在sklearn里面并不是使用 "梯度下降法" 来求参数最优值（"极小值"）的，所以没有学习率 和 轮数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据符合线性分布
+</t>
   </si>
   <si>
     <t>#Salary_Data.csv
@@ -474,14 +694,10 @@
 2,43525</t>
   </si>
   <si>
-    <t xml:space="preserve">数据符合线性分布
-</t>
-  </si>
-  <si>
     <t>预测薪资2</t>
   </si>
   <si>
-    <t>线性模型-变种
+    <t>线性-变种
 -岭回归</t>
   </si>
   <si>
@@ -495,7 +711,7 @@
     <t>预测薪资3</t>
   </si>
   <si>
-    <t>线性模型-变种
+    <t>线性-变种
 -多项式回归</t>
   </si>
   <si>
@@ -509,7 +725,66 @@
     <t>房屋价格预测</t>
   </si>
   <si>
-    <t>波士顿房屋价格</t>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>综合使用：
+线性模型
+岭回归
+多项式回归</t>
+  </si>
+  <si>
+    <t>波士顿房屋价格
+boston_data.csv
+前13列是x，最后一列是y
+0.00632,18.00,2.310,0,0.5380,6.5750,65.20,4.0900,1,296.0,15.30,396.90,4.98,24.00
+0.02731,0.00,7.070,0,0.4690,6.4210,78.90,4.9671,2,242.0,17.80,396.90,9.14,21.60
+0.02729,0.00,7.070,0,0.4690,7.1850,61.10,4.9671,2,242.0,17.80,392.83,4.03,34.70</t>
+  </si>
+  <si>
+    <t>房屋价格预测2</t>
+  </si>
+  <si>
+    <t>决策树-单颗</t>
+  </si>
+  <si>
+    <t>st.DecisionTreeRegressor</t>
+  </si>
+  <si>
+    <t>提升精度</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>房屋价格预测3</t>
+  </si>
+  <si>
+    <t>集成学习：
+（正向激励、自适应、增强）
++（线性、岭回归、多项式回归、决策树）</t>
+  </si>
+  <si>
+    <t>se.AdaBoostRegressor</t>
+  </si>
+  <si>
+    <t>房屋价格预测4</t>
+  </si>
+  <si>
+    <t>集成学习：gbdt</t>
+  </si>
+  <si>
+    <t>se.GradientBoostingRegressor</t>
+  </si>
+  <si>
+    <t>房屋价格预测5</t>
+  </si>
+  <si>
+    <t>集成学习：随机森林</t>
+  </si>
+  <si>
+    <t>se.RandomForestRegressor</t>
   </si>
 </sst>
 </file>
@@ -522,7 +797,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +973,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +1003,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -905,7 +1212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -923,6 +1230,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1052,7 +1396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,121 +1408,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1189,23 +1536,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1216,28 +1575,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1246,8 +1602,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1560,280 +1961,394 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:E25"/>
+  <dimension ref="A5:E38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="65.4336283185841" customWidth="1"/>
-    <col min="2" max="2" width="22.8407079646018" customWidth="1"/>
-    <col min="3" max="3" width="27.1769911504425" customWidth="1"/>
+    <col min="1" max="1" width="70.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="33.7964601769912" customWidth="1"/>
+    <col min="3" max="3" width="36.8849557522124" customWidth="1"/>
     <col min="4" max="4" width="59.4778761061947" customWidth="1"/>
     <col min="5" max="5" width="17.2654867256637" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" ht="202.5" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="162" spans="1:5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" ht="40" customHeight="1" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="37" customHeight="1" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+    <row r="19" s="12" customFormat="1" ht="64" customHeight="1" spans="1:5">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="1" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="53" customHeight="1" spans="1:5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="1" t="s">
+      <c r="E22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="23" s="12" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" ht="28" customHeight="1" spans="1:5">
-      <c r="A24" s="23" t="s">
+      <c r="C23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E23" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:5">
-      <c r="A25" s="23"/>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="24" s="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="35"/>
+      <c r="B24" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
+      <c r="C24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" s="12" customFormat="1" ht="70" customHeight="1" spans="1:5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="38"/>
+      <c r="B30" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:5">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" customFormat="1" spans="1:5">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" ht="28" customHeight="1" spans="1:5">
+      <c r="A35" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:5">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" s="12" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A37" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" ht="14" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="E16:E17"/>
   </mergeCells>
@@ -1846,117 +2361,224 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B10:H14"/>
+  <dimension ref="B9:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="13.4336283185841" customWidth="1"/>
-    <col min="3" max="3" width="15.4778761061947" customWidth="1"/>
+    <col min="3" max="3" width="35.6017699115044" customWidth="1"/>
     <col min="4" max="4" width="40.4955752212389" customWidth="1"/>
-    <col min="5" max="6" width="26.353982300885" customWidth="1"/>
-    <col min="7" max="7" width="22.3716814159292" customWidth="1"/>
-    <col min="8" max="8" width="15.0088495575221" customWidth="1"/>
+    <col min="5" max="7" width="26.353982300885" customWidth="1"/>
+    <col min="8" max="8" width="118.743362831858" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="150" customHeight="1" spans="2:8">
-      <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3" t="s">
-        <v>63</v>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="2:8">
-      <c r="B12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>63</v>
+      <c r="G12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" ht="36" customHeight="1" spans="2:6">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
+      <c r="G13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" ht="53" customHeight="1" spans="2:8">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="108" customHeight="1" spans="2:8">
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" ht="54" customHeight="1" spans="2:8">
+      <c r="B16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" ht="70" customHeight="1" spans="2:8">
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="2:8">
+      <c r="B18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" ht="34" customHeight="1" spans="2:8">
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:H9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="sklearn" sheetId="1" r:id="rId1"/>
-    <sheet name="案例" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
+    <sheet name="sklearn-回归" sheetId="1" r:id="rId2"/>
+    <sheet name="sklearn-分类" sheetId="4" r:id="rId3"/>
+    <sheet name="案例" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="171">
   <si>
     <r>
       <rPr>
@@ -159,6 +161,402 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>加载与保存模型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pickle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>pickle.dump</t>
+  </si>
+  <si>
+    <t>pickle.load</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#数据集合
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.datasets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sd</t>
+    </r>
+  </si>
+  <si>
+    <t>回归任务</t>
+  </si>
+  <si>
+    <t>波士顿房屋价格</t>
+  </si>
+  <si>
+    <t>boston = sd.load_boston()</t>
+  </si>
+  <si>
+    <t>分类任务</t>
+  </si>
+  <si>
+    <t>鸢尾花分类</t>
+  </si>
+  <si>
+    <t>iris = sd.load_iris()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">回归-评估指标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm</t>
+    </r>
+  </si>
+  <si>
+    <t>平均绝对误差-MAE</t>
+  </si>
+  <si>
+    <t>sm.mean_absolute_error</t>
+  </si>
+  <si>
+    <t>均方误差-MSE</t>
+  </si>
+  <si>
+    <t>sm.mean_squared_error</t>
+  </si>
+  <si>
+    <t>中位数绝对偏差-MAD：</t>
+  </si>
+  <si>
+    <t>sm.median_absolute_error</t>
+  </si>
+  <si>
+    <t>r2_score：</t>
+  </si>
+  <si>
+    <t>sm.r2_score</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">分类-评估指标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm</t>
+    </r>
+  </si>
+  <si>
+    <t>精度</t>
+  </si>
+  <si>
+    <t>sm.accuracy_score(test_y,pred_test_y)</t>
+  </si>
+  <si>
+    <t>查准率</t>
+  </si>
+  <si>
+    <t>sm.precision_score</t>
+  </si>
+  <si>
+    <t>召回率/查全率</t>
+  </si>
+  <si>
+    <t>sm.recall_score</t>
+  </si>
+  <si>
+    <t>F1得分</t>
+  </si>
+  <si>
+    <t>sm.f1_score</t>
+  </si>
+  <si>
+    <t>越接近1越好。</t>
+  </si>
+  <si>
+    <t>混淆矩阵/误差矩阵</t>
+  </si>
+  <si>
+    <t>sm.confusion_matrix</t>
+  </si>
+  <si>
+    <t>用n行n列的矩阵形式来表示</t>
+  </si>
+  <si>
+    <t>分类报告</t>
+  </si>
+  <si>
+    <t>sm.classification_report</t>
+  </si>
+  <si>
+    <t>比"混淆矩阵"更全面</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#评估模块
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm</t>
+    </r>
+  </si>
+  <si>
+    <t>交叉验证法</t>
+  </si>
+  <si>
+    <t>ms.cross_val_score</t>
+  </si>
+  <si>
+    <t>它包含了训练、预测、评估的整体过程</t>
+  </si>
+  <si>
+    <t>ms.validation_curve</t>
+  </si>
+  <si>
+    <t>一次只能找到一个最优参数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">模型选择
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.model_selection</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as ms</t>
+    </r>
+  </si>
+  <si>
+    <t>训练集和测试集划分</t>
+  </si>
+  <si>
+    <t>train_x,test_x,train_y,test_y 
+= ms.train_test_split(x,y,
+                        test_size=0.2,
+                        random_state= 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要设置：划分比例，随机种子
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分类业务：需要
+stratify=y #按照 "y值(类别)"进行等比划分
+</t>
+  </si>
+  <si>
+    <t>验证曲线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一次只能找到一个最优参数
+</t>
+  </si>
+  <si>
+    <t>通过 "验证曲线" 找到深度 最佳值
+通过 "验证曲线" 找到 弱模型数量最佳值</t>
+  </si>
+  <si>
+    <t>学习曲线</t>
+  </si>
+  <si>
+    <t>ms.learning_curve</t>
+  </si>
+  <si>
+    <t>"不同大小的训练集"下模型的优劣程度</t>
+  </si>
+  <si>
+    <t>网络搜索</t>
+  </si>
+  <si>
+    <t>ms.GridSearchCV</t>
+  </si>
+  <si>
+    <t>通过 网格搜索 寻找，最优参数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">线性模型
 </t>
     </r>
@@ -257,7 +655,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">#决策树
+      <t xml:space="preserve">#-回归决策树
 </t>
     </r>
     <r>
@@ -306,6 +704,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">集成学习
 </t>
     </r>
@@ -370,7 +775,7 @@
 也就是y'−y，不断拟合残差</t>
   </si>
   <si>
-    <t>随机森林
+    <t>随机森林-回归
 （内部默认是：决策树）</t>
   </si>
   <si>
@@ -381,14 +786,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">评估指标
+      <t xml:space="preserve">逻辑回归
 </t>
     </r>
     <r>
@@ -411,66 +809,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sklearn.metrics</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as sm</t>
-    </r>
-  </si>
-  <si>
-    <t>平均绝对误差-MAE</t>
-  </si>
-  <si>
-    <t>sm.mean_absolute_error</t>
-  </si>
-  <si>
-    <t>均方误差-MSE</t>
-  </si>
-  <si>
-    <t>sm.mean_squared_error</t>
-  </si>
-  <si>
-    <t>中位数绝对偏差-MAD：</t>
-  </si>
-  <si>
-    <t>sm.median_absolute_error</t>
-  </si>
-  <si>
-    <t>r2_score：</t>
-  </si>
-  <si>
-    <t>sm.r2_score</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加载与保存模型</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-import </t>
+      <t>sklearn.linear_model</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as lm</t>
+    </r>
+  </si>
+  <si>
+    <t>model = lm.LogisticRegression(solver='liblinear', C=1)</t>
+  </si>
+  <si>
+    <t>做“二分类”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sigmoid函数
+逻辑函数
+（两个离散值0|1）</t>
+  </si>
+  <si>
+    <t>做“多分类”multi_cass  = 'auto'，默认就是多分类</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#-分类决策树
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
     </r>
     <r>
       <rPr>
@@ -481,40 +863,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pickle</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>pickle.dump</t>
-  </si>
-  <si>
-    <t>pickle.load</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">训练集和测试集划分
+      <t>sklearn.tree</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as st</t>
+    </r>
+  </si>
+  <si>
+    <t>相似的输入必会产生相似的输出</t>
+  </si>
+  <si>
+    <t>st.DecisionTreeClassifier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">集成学习
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -525,34 +901,45 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="20"/>
         <color rgb="FF7030A0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sklearn.model_selection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as ms</t>
-    </r>
-  </si>
-  <si>
-    <t>train_x,test_x,train_y,test_y 
-= ms.train_test_split(x,y,
-                        test_size=0.2,
-                        random_state= 7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">需要设置：划分比例，随机种子
-</t>
+      <t>sklearn.ensemble</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as se</t>
+    </r>
+  </si>
+  <si>
+    <t>随机森林-分类
+（内部默认是：决策树）</t>
+  </si>
+  <si>
+    <t>model = se.RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>置信概率</t>
+  </si>
+  <si>
+    <t>model.predict_proba(test_x))</t>
+  </si>
+  <si>
+    <t>样本上采样</t>
+  </si>
+  <si>
+    <t>样本下采样</t>
   </si>
   <si>
     <t>根据R2得分来选择模型</t>
@@ -725,14 +1112,11 @@
     <t>房屋价格预测</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>综合使用：
+    <t xml:space="preserve">综合使用：
 线性模型
 岭回归
-多项式回归</t>
+多项式回归
+</t>
   </si>
   <si>
     <t>波士顿房屋价格
@@ -746,7 +1130,7 @@
     <t>房屋价格预测2</t>
   </si>
   <si>
-    <t>决策树-单颗</t>
+    <t>回归-决策树-单颗</t>
   </si>
   <si>
     <t>st.DecisionTreeRegressor</t>
@@ -784,7 +1168,67 @@
     <t>集成学习：随机森林</t>
   </si>
   <si>
-    <t>se.RandomForestRegressor</t>
+    <r>
+      <t>se.RandomForest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Regressor</t>
+    </r>
+  </si>
+  <si>
+    <t>逻辑回归</t>
+  </si>
+  <si>
+    <t>lm.LogisticRegression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鸢尾花
+4个特征 150 个样本 3个类别
+    Min  Max   Mean    SD   Class Correlation
+============== ==== ==== ======= ===== ====================
+sepal length:   4.3  7.9   5.84   0.83    0.7826
+sepal width:    2.0  4.4   3.05   0.43   -0.4194
+</t>
+  </si>
+  <si>
+    <t>鸢尾花分类2</t>
+  </si>
+  <si>
+    <t>分类-决策树-单颗</t>
+  </si>
+  <si>
+    <t>汽车等级分类</t>
+  </si>
+  <si>
+    <r>
+      <t>se.RandomForest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Classifier</t>
+    </r>
+  </si>
+  <si>
+    <t>涉及标签编码</t>
+  </si>
+  <si>
+    <t>car.txt
+6个特征，
+vhigh,vhigh,2,2,small,low,unacc
+vhigh,vhigh,2,2,small,med,unacc</t>
   </si>
 </sst>
 </file>
@@ -797,7 +1241,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1402,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -973,22 +1424,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,12 +1435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,7 +1687,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1267,9 +1700,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1396,7 +1827,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1420,16 +1851,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1438,89 +1869,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,37 +1973,79 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,74 +2054,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1961,10 +2395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:E38"/>
+  <dimension ref="A5:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D46" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1977,380 +2411,339 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18" t="s">
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" customFormat="1" ht="51" customHeight="1"/>
+    <row r="12" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="16"/>
+      <c r="B13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="15" ht="44" customHeight="1" spans="1:5">
+      <c r="A15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="B15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
+      <c r="C15" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" ht="29" customHeight="1" spans="1:5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="18" t="s">
+      <c r="D16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="E16" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22" t="s">
+      <c r="B20" s="37" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" ht="54" spans="1:5">
-      <c r="A17" s="18" t="s">
+      <c r="C20" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16"/>
+      <c r="B21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="C21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="24"/>
-    </row>
-    <row r="18" ht="40" customHeight="1" spans="1:5">
-      <c r="A18" s="18" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16"/>
+      <c r="B22" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16"/>
+      <c r="B23" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="C23" s="37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="64" customHeight="1" spans="1:5">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-    </row>
-    <row r="20" s="12" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A20" s="27" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B26" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C26" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" s="12" customFormat="1" ht="53" customHeight="1" spans="1:5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" s="12" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A22" s="33" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="C27" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" s="12" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A23" s="34"/>
-      <c r="B23" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A24" s="35"/>
-      <c r="B24" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" s="12" customFormat="1" ht="70" customHeight="1" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="36"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="37" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="36"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="41"/>
+      <c r="B30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
+      <c r="A31" s="41"/>
+      <c r="B31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="34" ht="38.65" spans="1:5">
+      <c r="A34" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="E34" s="39"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39" t="s">
+      <c r="D36" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="39" t="s">
+    </row>
+    <row r="39" s="26" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A39" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" customFormat="1" spans="1:5">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" customFormat="1" spans="1:5">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" customFormat="1" spans="1:5">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" ht="28" customHeight="1" spans="1:5">
-      <c r="A35" s="41" t="s">
+      <c r="B39" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="C39" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:5">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37" t="s">
+      <c r="D39" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-    </row>
-    <row r="37" s="12" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A37" s="27" t="s">
+      <c r="E39" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="28" t="s">
+    </row>
+    <row r="40" ht="67.5" spans="2:5">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" ht="14" customHeight="1"/>
+      <c r="E40" s="43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
+  <mergeCells count="5">
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2361,10 +2754,329 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:H19"/>
+  <dimension ref="A5:E19"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="70.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="33.7964601769912" customWidth="1"/>
+    <col min="3" max="3" width="36.8849557522124" customWidth="1"/>
+    <col min="4" max="4" width="59.4778761061947" customWidth="1"/>
+    <col min="5" max="5" width="17.2654867256637" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="16"/>
+      <c r="B9" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" ht="29" customHeight="1" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
+      <c r="A11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:5">
+      <c r="A12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" s="26" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" s="26" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" s="26" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" s="26" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="30"/>
+      <c r="B17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" s="26" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="31"/>
+      <c r="B18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" s="26" customFormat="1" ht="70" customHeight="1" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="70.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="33.7964601769912" customWidth="1"/>
+    <col min="3" max="3" width="50.2566371681416" customWidth="1"/>
+    <col min="4" max="4" width="37.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="17.2654867256637" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="54" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="10" ht="38.65" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="13" ht="38.65" spans="1:5">
+      <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B9:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2378,7 +3090,7 @@
   <sheetData>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2389,88 +3101,88 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="150" customHeight="1" spans="2:8">
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="55" customHeight="1" spans="2:8">
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" ht="53" customHeight="1" spans="2:8">
@@ -2484,95 +3196,150 @@
     </row>
     <row r="15" ht="108" customHeight="1" spans="2:8">
       <c r="B15" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>92</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="8" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" ht="54" customHeight="1" spans="2:8">
-      <c r="B16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10" t="s">
-        <v>98</v>
+      <c r="B16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="17" ht="70" customHeight="1" spans="2:8">
-      <c r="B17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9" t="s">
-        <v>98</v>
+      <c r="B17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="2:8">
-      <c r="B18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9" t="s">
-        <v>98</v>
+      <c r="B18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="34" customHeight="1" spans="2:8">
-      <c r="B19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>106</v>
+      <c r="B19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9" t="s">
-        <v>98</v>
+        <v>161</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" ht="94.5" spans="2:8">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" ht="26" customHeight="1" spans="2:8">
+      <c r="B25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" ht="58" customHeight="1" spans="2:8">
+      <c r="B26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +3352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
     <sheet name="sklearn-回归" sheetId="1" r:id="rId2"/>
     <sheet name="sklearn-分类" sheetId="4" r:id="rId3"/>
-    <sheet name="案例" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
+    <sheet name="案例" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
   <si>
     <r>
       <rPr>
@@ -206,6 +206,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">#数据集合
 </t>
     </r>
@@ -263,6 +270,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">回归-评估指标
 </t>
     </r>
@@ -410,6 +424,58 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">聚类-评估指标
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.metrics</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sm</t>
+    </r>
+  </si>
+  <si>
+    <t>轮廓系数</t>
+  </si>
+  <si>
+    <t>score = sm.silhouette_score</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">#评估模块
 </t>
     </r>
@@ -464,6 +530,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">模型选择
 </t>
     </r>
@@ -655,6 +728,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">#-回归决策树
 </t>
     </r>
@@ -786,6 +866,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">逻辑回归
 </t>
     </r>
@@ -840,6 +927,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">#-分类决策树
 </t>
     </r>
@@ -884,45 +978,6 @@
     <t>st.DecisionTreeClassifier</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">集成学习
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">import </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sklearn.ensemble</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as se</t>
-    </r>
-  </si>
-  <si>
     <t>随机森林-分类
 （内部默认是：决策树）</t>
   </si>
@@ -930,6 +985,110 @@
     <t>model = se.RandomForestClassifier</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">支持向量机
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.svm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as svm</t>
+    </r>
+  </si>
+  <si>
+    <t>model = svm.SVC(kernel='linear')</t>
+  </si>
+  <si>
+    <t>线性核函数：不通过核函数进行升维</t>
+  </si>
+  <si>
+    <t>线性可分时使用</t>
+  </si>
+  <si>
+    <t>model = svm.SVC(kernel='poly',degree=4)</t>
+  </si>
+  <si>
+    <t>多项式核函数</t>
+  </si>
+  <si>
+    <t>model = svm.SVC(kernel='rbf',</t>
+  </si>
+  <si>
+    <t>径向基核函数（高斯核函数）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#朴素贝叶斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.naive_bayes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as nb</t>
+    </r>
+  </si>
+  <si>
+    <t>model = nb.GaussianNB()
+nb.BernoulliNB
+nb.MultinomialNB</t>
+  </si>
+  <si>
     <t>置信概率</t>
   </si>
   <si>
@@ -942,7 +1101,144 @@
     <t>样本下采样</t>
   </si>
   <si>
-    <t>根据R2得分来选择模型</t>
+    <r>
+      <t xml:space="preserve">k-means
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sc</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+model = KMeans(n_clusters=4)</t>
+  </si>
+  <si>
+    <t>基于中心，先给一个k</t>
+  </si>
+  <si>
+    <t>k-means和DBSCAN 
+是互补的</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">噪声密度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sklearn.cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> as sc</t>
+    </r>
+  </si>
+  <si>
+    <t>model =  sc.DBSCAN</t>
+  </si>
+  <si>
+    <t>没有中心</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">凝聚层次
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sklearn.cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as sc</t>
+    </r>
+  </si>
+  <si>
+    <t>model =  sc.AgglomerativeClustering(n_clusters=5)</t>
+  </si>
+  <si>
+    <t>没有中心，需要提前给一个k</t>
+  </si>
+  <si>
+    <t>与k-means和dbscan都有一点像</t>
   </si>
   <si>
     <t>业务场景</t>
@@ -1169,6 +1465,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>se.RandomForest</t>
     </r>
     <r>
@@ -1208,6 +1511,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>se.RandomForest</t>
     </r>
     <r>
@@ -1229,6 +1539,81 @@
 6个特征，
 vhigh,vhigh,2,2,small,low,unacc
 vhigh,vhigh,2,2,small,med,unacc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一组二分类数据
+</t>
+  </si>
+  <si>
+    <t>支持向量机</t>
+  </si>
+  <si>
+    <t>model = svm.SVC(kernel='linear')
+model = svm.SVC(kernel='poly',degree=4)
+model = svm.SVC(kernel='rbf',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两个特征1个预测值
+multlpte2.txt
+5.35,4.48,0
+6.72,5.37,0
+3.57,5.25,0
+4.77,7.65,1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一组分类数据
+</t>
+  </si>
+  <si>
+    <t>高斯朴素贝叶斯分类器</t>
+  </si>
+  <si>
+    <t>model = nb.GaussianNB()</t>
+  </si>
+  <si>
+    <t>两个特征1个值，4个类别
+8.73,0.31,2
+4.71,-0.42,3
+4.58,6.18,1
+9.38,2.18,2
+4.78,5.28,1
+1.22,2.25,0</t>
+  </si>
+  <si>
+    <t>聚类案例</t>
+  </si>
+  <si>
+    <t>k-均值聚类</t>
+  </si>
+  <si>
+    <t>sc.KMeans(n_clusters=4)</t>
+  </si>
+  <si>
+    <t>#multiple3.txt
+1.96,-0.09
+2.84,3.16
+4.74,1.84
+6.36,4.89</t>
+  </si>
+  <si>
+    <t>噪声密度</t>
+  </si>
+  <si>
+    <t>sc.DBSCAN</t>
+  </si>
+  <si>
+    <t>1.65,1.91
+2.77,4.98
+5.82,2.56
+7.24,5.24
+-0.3,4.06</t>
+  </si>
+  <si>
+    <t>凝聚层次</t>
+  </si>
+  <si>
+    <t>sc.AgglomerativeClustering</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1626,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1641,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1424,6 +1815,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -1434,13 +1839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1821,174 +2226,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2000,88 +2408,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2395,355 +2815,374 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:E42"/>
+  <dimension ref="A5:E43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D46" sqref="D43:D46"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="70.5929203539823" customWidth="1"/>
     <col min="2" max="2" width="33.7964601769912" customWidth="1"/>
-    <col min="3" max="3" width="36.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="41.4336283185841" customWidth="1"/>
     <col min="4" max="4" width="59.4778761061947" customWidth="1"/>
     <col min="5" max="5" width="17.2654867256637" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" customFormat="1" ht="51" customHeight="1"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="41"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="34" ht="38.65" spans="1:5">
-      <c r="A34" s="42" t="s">
+      <c r="E31" s="45"/>
+    </row>
+    <row r="33" ht="38.65" spans="1:5">
+      <c r="A33" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="35" ht="38.65" spans="1:5">
+      <c r="A35" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="39"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+      <c r="B35" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C35" s="44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" s="26" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A39" s="16" t="s">
+      <c r="D35" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="E35" s="44"/>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D37" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="24" t="s">
+    </row>
+    <row r="40" s="13" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="B40" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" ht="67.5" spans="2:5">
-      <c r="B40" t="s">
+      <c r="C40" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
+    <row r="41" ht="67.5" spans="1:5">
+      <c r="A41" s="47"/>
+      <c r="B41" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="E41" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="47"/>
+      <c r="B42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="48" t="s">
         <v>74</v>
       </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="47"/>
+      <c r="B43" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2757,7 +3196,7 @@
   <dimension ref="A5:E19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2770,176 +3209,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="A6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="16"/>
-      <c r="B8" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="16"/>
-      <c r="B9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="27" t="s">
-        <v>86</v>
+      <c r="A10" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="39" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" s="26" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="26" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="16" t="s">
+      <c r="B12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="E12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="26" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="29" t="s">
+    </row>
+    <row r="13" s="13" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" s="13" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B14" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" s="13" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" s="13" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="17" s="26" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="30"/>
-      <c r="B17" s="24" t="s">
+      <c r="C16" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E16" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="24" t="s">
+    <row r="17" s="13" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="42"/>
+      <c r="B17" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C17" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E17" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" s="26" customFormat="1" ht="70" customHeight="1" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+    </row>
+    <row r="18" s="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="43"/>
+      <c r="B18" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" s="13" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2961,10 +3400,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:E23"/>
+  <dimension ref="A5:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2977,91 +3416,141 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" s="13" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="10" ht="38.65" spans="1:5">
+      <c r="A10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="13" ht="38.65" spans="1:5">
+      <c r="A13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" ht="39" customHeight="1"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="36" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B15" s="11" t="s">
         <v>122</v>
       </c>
+      <c r="C15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="37"/>
+      <c r="B16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="37"/>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="20" ht="40.5" spans="1:5">
+      <c r="A20" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3073,278 +3562,73 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:H26"/>
+  <dimension ref="A5:E8"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.4336283185841" customWidth="1"/>
-    <col min="3" max="3" width="35.6017699115044" customWidth="1"/>
-    <col min="4" max="4" width="40.4955752212389" customWidth="1"/>
-    <col min="5" max="7" width="26.353982300885" customWidth="1"/>
-    <col min="8" max="8" width="118.743362831858" customWidth="1"/>
+    <col min="1" max="1" width="70.5929203539823" customWidth="1"/>
+    <col min="2" max="2" width="62.4867256637168" customWidth="1"/>
+    <col min="3" max="3" width="50.2566371681416" customWidth="1"/>
+    <col min="4" max="4" width="37.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="17.2654867256637" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" ht="150" customHeight="1" spans="2:8">
-      <c r="B11" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
+    <row r="5" ht="33" customHeight="1" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" ht="53" customHeight="1" spans="1:5">
+      <c r="A6" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" ht="55" customHeight="1" spans="2:8">
-      <c r="B12" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D6" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="13" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="4" t="s">
+      <c r="B7" s="22" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="2" t="s">
+      <c r="C7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="38.65" spans="1:5">
+      <c r="A8" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B8" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="C8" s="25" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" ht="53" customHeight="1" spans="2:8">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" ht="108" customHeight="1" spans="2:8">
-      <c r="B15" s="7" t="s">
+      <c r="D8" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" ht="54" customHeight="1" spans="2:8">
-      <c r="B16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="70" customHeight="1" spans="2:8">
-      <c r="B17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="1" spans="2:8">
-      <c r="B18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" ht="34" customHeight="1" spans="2:8">
-      <c r="B19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" ht="94.5" spans="2:8">
-      <c r="B24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" ht="26" customHeight="1" spans="2:8">
-      <c r="B25" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" ht="58" customHeight="1" spans="2:8">
-      <c r="B26" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>170</v>
-      </c>
+      <c r="E8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3355,14 +3639,350 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="13.4336283185841" customWidth="1"/>
+    <col min="3" max="3" width="35.6017699115044" customWidth="1"/>
+    <col min="4" max="4" width="47.7964601769912" customWidth="1"/>
+    <col min="5" max="7" width="26.353982300885" customWidth="1"/>
+    <col min="8" max="8" width="118.743362831858" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" ht="150" customHeight="1" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" ht="55" customHeight="1" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" ht="53" customHeight="1" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" ht="53" customHeight="1" spans="2:8">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" ht="108" customHeight="1" spans="2:8">
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="2:8">
+      <c r="B15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" ht="70" customHeight="1" spans="2:8">
+      <c r="B16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="2:8">
+      <c r="B17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1" spans="2:8">
+      <c r="B18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" ht="94.5" spans="2:8">
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="2:8">
+      <c r="B24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" ht="58" customHeight="1" spans="2:8">
+      <c r="B25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" ht="108" spans="2:8">
+      <c r="B26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" ht="100" customHeight="1" spans="2:8">
+      <c r="B27" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" ht="46" customHeight="1"/>
+    <row r="29" ht="67.5" spans="2:8">
+      <c r="B29" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="2:8">
+      <c r="B30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="2:8">
+      <c r="B31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B29:B31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="4"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
     <sheet name="sklearn-回归" sheetId="1" r:id="rId2"/>
     <sheet name="sklearn-分类" sheetId="4" r:id="rId3"/>
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
-    <sheet name="案例" sheetId="2" r:id="rId5"/>
+    <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
+    <sheet name="opencv-案例" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="216">
   <si>
     <r>
       <rPr>
@@ -340,6 +341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">分类-评估指标
 </t>
     </r>
@@ -424,6 +432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">聚类-评估指标
 </t>
     </r>
@@ -986,6 +1001,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">支持向量机
 </t>
     </r>
@@ -1046,6 +1068,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">#朴素贝叶斯
 </t>
     </r>
@@ -1102,6 +1131,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">k-means
 </t>
     </r>
@@ -1152,6 +1188,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">噪声密度
 </t>
     </r>
@@ -1194,6 +1236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">凝聚层次
 </t>
     </r>
@@ -1614,6 +1663,24 @@
   </si>
   <si>
     <t>sc.AgglomerativeClustering</t>
+  </si>
+  <si>
+    <t>opencv-案例1</t>
+  </si>
+  <si>
+    <t>检测出纸张的边缘</t>
+  </si>
+  <si>
+    <t>opencv-案例2</t>
+  </si>
+  <si>
+    <t>图像矫正</t>
+  </si>
+  <si>
+    <t>opencv-案例3</t>
+  </si>
+  <si>
+    <t>芯片瑕疵检测</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,7 +1924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2356,47 +2423,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2408,101 +2469,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2831,283 +2844,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="26"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="45"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="45" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3117,63 +3130,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="47" t="s">
+    <row r="40" s="11" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="47"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="47"/>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="47"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3209,176 +3222,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="26" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" s="13" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="26" t="s">
+    <row r="13" s="11" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" s="13" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" s="13" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" s="11" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" s="11" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="13" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="34" t="s">
+    <row r="17" s="11" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="28"/>
+      <c r="B17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="13" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="34" t="s">
+    <row r="18" s="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="29"/>
+      <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" s="13" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" s="11" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3403,7 +3416,7 @@
   <dimension ref="A5:E28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3416,118 +3429,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="28" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" s="13" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -3578,53 +3591,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" s="13" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="21" t="s">
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3641,8 +3654,8 @@
   <sheetPr/>
   <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3655,327 +3668,327 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:8">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:8">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:8">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:8">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:8">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:8">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:8">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:8">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:8">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:8">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="12"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="12"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3987,4 +4000,53 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D10:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="35.1150442477876" customWidth="1"/>
+    <col min="5" max="5" width="26.3097345132743" customWidth="1"/>
+    <col min="6" max="6" width="41.8938053097345" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:6">
+      <c r="D10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="sklearn-分类" sheetId="4" r:id="rId3"/>
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
-    <sheet name="opencv-案例" sheetId="8" r:id="rId6"/>
+    <sheet name="opencv-推荐-案例" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
   <si>
     <r>
       <rPr>
@@ -1681,6 +1681,21 @@
   </si>
   <si>
     <t>芯片瑕疵检测</t>
+  </si>
+  <si>
+    <t>电影推荐</t>
+  </si>
+  <si>
+    <t>协同过滤推荐==&gt;基于内存==&gt;UCF</t>
+  </si>
+  <si>
+    <t>根据用户的相似度</t>
+  </si>
+  <si>
+    <t>协同过滤推荐==&gt;基于内存==&gt;ICF</t>
+  </si>
+  <si>
+    <t>根据物品相似度</t>
   </si>
 </sst>
 </file>
@@ -1897,18 +1912,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2299,7 +2308,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2323,16 +2332,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2341,89 +2350,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2436,28 +2445,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2469,49 +2475,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2844,283 +2847,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="15"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="15"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="15"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="15"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="30"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="15"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="4"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3130,63 +3133,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="11" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="15" t="s">
+    <row r="40" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="15"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="15"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3222,176 +3225,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="15"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="11" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="15" t="s">
+    <row r="13" s="10" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" s="11" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" s="11" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="27" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" s="10" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="28"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" s="10" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="26"/>
+      <c r="B17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" s="10" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" s="11" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3429,118 +3432,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" s="11" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="20"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -3591,53 +3594,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="19" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3655,7 +3658,7 @@
   <dimension ref="B9:H31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:H31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3668,327 +3671,327 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:8">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:8">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:8">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:8">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:8">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:8">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:8">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:8">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:8">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:8">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:8">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="5" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="10"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="5" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="10"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="5" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4005,16 +4008,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D10:F12"/>
+  <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="35.1150442477876" customWidth="1"/>
-    <col min="5" max="5" width="26.3097345132743" customWidth="1"/>
+    <col min="5" max="5" width="40.3628318584071" customWidth="1"/>
     <col min="6" max="6" width="41.8938053097345" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4028,21 +4031,43 @@
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4011,7 +4011,7 @@
   <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -1912,18 +1912,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2308,7 +2302,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2332,16 +2326,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2350,89 +2344,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2440,9 +2434,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2451,10 +2442,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2463,7 +2454,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2496,13 +2487,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2847,90 +2838,90 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2941,7 +2932,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2950,7 +2941,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2965,7 +2956,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2978,7 +2969,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2991,7 +2982,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3002,7 +2993,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3013,7 +3004,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3024,7 +3015,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3037,7 +3028,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3039,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3059,7 +3050,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3072,33 +3063,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="14"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3111,7 +3102,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3133,53 +3124,53 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="14" t="s">
+    <row r="40" s="9" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3225,176 +3216,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="10" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="14" t="s">
+    <row r="13" s="9" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="10" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="25" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" s="9" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="25"/>
+      <c r="B17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" s="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="26"/>
+      <c r="B18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" s="10" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3432,73 +3423,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+    <row r="8" s="9" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3513,7 +3504,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -3524,7 +3515,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3535,10 +3526,10 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="2"/>
@@ -3594,41 +3585,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3700,17 +3691,17 @@
       <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3718,7 +3709,7 @@
       <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3728,10 +3719,10 @@
       <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3739,44 +3730,44 @@
       <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3795,7 +3786,7 @@
         <v>173</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3803,7 +3794,7 @@
       <c r="B16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3844,7 +3835,7 @@
       <c r="C18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>183</v>
       </c>
       <c r="E18" s="2"/>
@@ -3869,7 +3860,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3899,7 +3890,7 @@
       <c r="C25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>190</v>
       </c>
       <c r="E25" s="2"/>
@@ -3909,29 +3900,29 @@
       <c r="G25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3943,13 +3934,13 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3961,12 +3952,12 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="9"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>205</v>
       </c>
@@ -3976,12 +3967,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="9"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
@@ -3991,7 +3982,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4011,7 +4002,7 @@
   <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4049,24 +4040,24 @@
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>220</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="5"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
     <sheet name="opencv-推荐-案例" sheetId="8" r:id="rId6"/>
+    <sheet name="tf案例" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
   <si>
     <r>
       <rPr>
@@ -1696,6 +1697,13 @@
   </si>
   <si>
     <t>根据物品相似度</t>
+  </si>
+  <si>
+    <t>手工搭建：
+线性模型</t>
+  </si>
+  <si>
+    <t>线性模型：y = 2x+5</t>
   </si>
 </sst>
 </file>
@@ -2426,20 +2434,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -2838,283 +2849,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="13"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="13"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="13"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="13"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3124,63 +3135,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="13" t="s">
+    <row r="40" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="13"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="13"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="13"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3216,176 +3227,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="24" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" s="9" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="13" t="s">
+    <row r="13" s="10" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" s="9" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" s="9" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="24" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" s="10" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="14" t="s">
+    <row r="17" s="10" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="26"/>
+      <c r="B17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="26"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" s="10" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="27"/>
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" s="10" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3423,118 +3434,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -3585,53 +3596,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="16" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3648,8 +3659,8 @@
   <sheetPr/>
   <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3662,327 +3673,327 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:8">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:8">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:8">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:8">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="4" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:8">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:8">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:8">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:8">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:8">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:8">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:8">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="8"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="8"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4001,7 +4012,7 @@
   <sheetPr/>
   <dimension ref="D10:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -4013,53 +4024,104 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="4:6">
+      <c r="D12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C12:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="15.2743362831858" customWidth="1"/>
+    <col min="4" max="4" width="26.353982300885" customWidth="1"/>
+    <col min="5" max="6" width="24.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="35.8495575221239" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="3:9">
+      <c r="C12" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="D17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="D18" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="3:9">
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="6"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
     <sheet name="opencv-推荐-案例" sheetId="8" r:id="rId6"/>
-    <sheet name="tf案例" sheetId="9" r:id="rId7"/>
+    <sheet name="数据集" sheetId="10" r:id="rId7"/>
+    <sheet name="tf案例" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
   <si>
     <r>
       <rPr>
@@ -1699,11 +1700,148 @@
     <t>根据物品相似度</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>下载地址</t>
+  </si>
+  <si>
+    <t>波士顿房屋价格-boston</t>
+  </si>
+  <si>
+    <t>线性模型-
+线性模型
+岭回归
+多项式回归</t>
+  </si>
+  <si>
+    <t>线性模型训练
+（经典教学）</t>
+  </si>
+  <si>
+    <t>鸢尾花-Iris</t>
+  </si>
+  <si>
+    <t>机器学习-分类
+（经典教学）</t>
+  </si>
+  <si>
+    <t>手写体识别-MNIST</t>
+  </si>
+  <si>
+    <t>全连接神经网络</t>
+  </si>
+  <si>
+    <t>深度学习-图片分类
+（经典教学）</t>
+  </si>
+  <si>
+    <t>训练集有 60000 个样本
+测试集有 10000 个样本
+28* 28 的灰度图像
+标签为"长度为10的一维数组"，它表示属于每个类别的相对概率，所以它用独热编码表示的。
+： 0~9  10个数字</t>
+  </si>
+  <si>
+    <t>http://yann.lecun.com/exdb/mnist/
+train-images-idx3-ubyte.gz:
+train-labels-idx1-ubyte.gz:
+t10k-images-idx3-ubyte.gz:
+t10k-labels-idx1-ubyte.gz:</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>API-框架</t>
+  </si>
+  <si>
+    <t>损失函数</t>
+  </si>
+  <si>
+    <t>数据集</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>梯度下降</t>
+  </si>
+  <si>
+    <t>训练机器</t>
+  </si>
+  <si>
+    <t>结论</t>
+  </si>
+  <si>
     <t>手工搭建：
 线性模型</t>
   </si>
   <si>
     <t>线性模型：y = 2x+5</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>均方差</t>
+  </si>
+  <si>
+    <t>自生成</t>
+  </si>
+  <si>
+    <t>（1）GradientDescentOptimizer
+（2）加载已有模型继续训练</t>
+  </si>
+  <si>
+    <t>本机-CPU</t>
+  </si>
+  <si>
+    <t>手写体识别：</t>
+  </si>
+  <si>
+    <t>全连接神经网络：
+一层全连接（就是输出层）</t>
+  </si>
+  <si>
+    <t>比较简单</t>
+  </si>
+  <si>
+    <t>交叉熵</t>
+  </si>
+  <si>
+    <t>MNIST数据集</t>
+  </si>
+  <si>
+    <t>图片分类</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）GradientDescentOptimizer
+（2）加载已有模型继续训练
+（3）小批量梯度下降
+</t>
+  </si>
+  <si>
+    <t>最后这个模型的精度：大约是 91% 或 92% 的样子，不能继续提升，</t>
+  </si>
+  <si>
+    <t>服饰识别：</t>
+  </si>
+  <si>
+    <t>卷积神经网络</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相对复杂-彩色图片
+</t>
   </si>
 </sst>
 </file>
@@ -1725,6 +1863,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1737,22 +1891,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1920,12 +2058,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2304,13 +2454,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2334,16 +2484,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2352,120 +2502,147 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2477,46 +2654,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -2849,283 +3023,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="28"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="14"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="28"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3135,63 +3309,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="14" t="s">
+    <row r="40" s="19" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="14"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3227,176 +3401,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="24" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="10" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" s="10" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="14" t="s">
+    <row r="13" s="19" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" s="10" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="25" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" s="19" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="10" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" s="19" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="34"/>
+      <c r="B17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="10" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="27"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="35"/>
+      <c r="B18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" s="10" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" s="19" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3434,118 +3608,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" s="10" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -3583,7 +3757,7 @@
   <dimension ref="A5:E8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3596,53 +3770,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="17" t="s">
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" s="19" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3659,8 +3833,8 @@
   <sheetPr/>
   <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3673,327 +3847,327 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:8">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:8">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:8">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:8">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:8">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:8">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:8">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:8">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:8">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:8">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:8">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2" t="s">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2" t="s">
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="9"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2" t="s">
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="14" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4024,51 +4198,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4081,47 +4255,220 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C12:I13"/>
+  <dimension ref="B8:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="26.0265486725664" customWidth="1"/>
+    <col min="3" max="3" width="31.3362831858407" customWidth="1"/>
+    <col min="4" max="4" width="20.1238938053097" customWidth="1"/>
+    <col min="5" max="5" width="23.9646017699115" customWidth="1"/>
+    <col min="6" max="6" width="38.9646017699115" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:6">
+      <c r="B8" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="2:6">
+      <c r="B9" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" ht="27" spans="2:6">
+      <c r="B10" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" ht="135" customHeight="1" spans="2:6">
+      <c r="B11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" ht="76" customHeight="1" spans="5:6">
+      <c r="E12" s="5"/>
+      <c r="F12" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" display="http://yann.lecun.com/exdb/mnist/&#10;train-images-idx3-ubyte.gz:&#10;train-labels-idx1-ubyte.gz:&#10;t10k-images-idx3-ubyte.gz:&#10;t10k-labels-idx1-ubyte.gz:" tooltip="http://yann.lecun.com/exdb/mnist/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C12:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="15.2743362831858" customWidth="1"/>
-    <col min="4" max="4" width="26.353982300885" customWidth="1"/>
-    <col min="5" max="6" width="24.1681415929204" customWidth="1"/>
-    <col min="9" max="9" width="35.8495575221239" customWidth="1"/>
+    <col min="4" max="4" width="25.5398230088496" customWidth="1"/>
+    <col min="5" max="5" width="9.24778761061947" customWidth="1"/>
+    <col min="6" max="7" width="13.4336283185841" customWidth="1"/>
+    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
+    <col min="9" max="9" width="14.0619469026549" customWidth="1"/>
+    <col min="10" max="10" width="35.8495575221239" customWidth="1"/>
+    <col min="11" max="11" width="13.3628318584071" customWidth="1"/>
+    <col min="12" max="12" width="20.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:9">
+    <row r="12" spans="3:12">
       <c r="C12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" ht="56" customHeight="1" spans="3:9">
+      <c r="E12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="3:12">
       <c r="C13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="3:12">
+      <c r="C14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="3:5">
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -14,7 +14,8 @@
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
     <sheet name="opencv-推荐-案例" sheetId="8" r:id="rId6"/>
     <sheet name="数据集" sheetId="10" r:id="rId7"/>
-    <sheet name="tf案例" sheetId="9" r:id="rId8"/>
+    <sheet name="tensor-flow" sheetId="11" r:id="rId8"/>
+    <sheet name="深度-案例" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="285">
   <si>
     <r>
       <rPr>
@@ -1756,6 +1757,84 @@
 t10k-labels-idx1-ubyte.gz:</t>
   </si>
   <si>
+    <t>服饰识别-FashionMNIST</t>
+  </si>
+  <si>
+    <t>卷积神经网络-自定义</t>
+  </si>
+  <si>
+    <t>它是时尚版的MNIST
+包括 60000 个训练集数据，
+10000 个测试集数据，
+每个数据为 28 * 28 灰度图像，一共有10个类型：</t>
+  </si>
+  <si>
+    <t>权重生成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w = tf.Variable(tf.random_normal(shape=[784, 10])) </t>
+  </si>
+  <si>
+    <t>随机正太分布</t>
+  </si>
+  <si>
+    <t>w = tf.Variable(tf.truncated_normal(shape=[5,5,input_feature,out_feature],mean=0,stddev=0.1))</t>
+  </si>
+  <si>
+    <t>（1）截尾正太分布-波动更小。
+（2）生成一个四维的权重张量。</t>
+  </si>
+  <si>
+    <t>偏置生成</t>
+  </si>
+  <si>
+    <t>b = tf.Variable(0.0,trainable=True)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b = tf.Variable(tf.zeros(shape=[10])) </t>
+  </si>
+  <si>
+    <t>b = tf.Variable(tf.constant(1.0, shape=shape))</t>
+  </si>
+  <si>
+    <t>损失函数与梯度下降</t>
+  </si>
+  <si>
+    <t>#损失函数：均方误差 Σ((y-y')^2)/n
+loss = tf.reduce_mean(tf.square(y - pred_y))</t>
+  </si>
+  <si>
+    <t>#梯度下降，求损失函数的极不值#使用 “梯度下降优化器，求损失函数的极小值”
+train_op = tf.train.GradientDescentOptimizer(0.1 #学习率
+                                  ).minimize(loss)</t>
+  </si>
+  <si>
+    <t># （5）损失函数：交叉熵 -Σ(真实概率 * log(预测概率))
+loss = -tf.reduce_sum(y * tf.log(pred_y),
+                      reduction_indices=1  # 水平方向求和
+                      )
+cost = tf.reduce_mean(loss)  # 平均交叉熵</t>
+  </si>
+  <si>
+    <t># （6）梯度下降
+train_op = tf.train.GradientDescentOptimizer(0.01 #学习率
+                                             ).minimize(cost)</t>
+  </si>
+  <si>
+    <t># 先计算softmax，再计算交叉熵
+loss = tf.nn.softmax_cross_entropy_with_logits(
+ labels=self.y, #真实值
+ logits=pred_y  #预测值
+)
+#对损失函数求均值
+cost = tf.reduce_mean(loss)</t>
+  </si>
+  <si>
+    <t># #自适应梯度下降优化器，在梯度下降过程中会 "自动调整学习率"
+optimizer = tf.train.AdamOptimizer(0.001)# 0.001 是初始的学习率
+self.train_op = optimizer.minimize(cost)</t>
+  </si>
+  <si>
     <t>难度</t>
   </si>
   <si>
@@ -1768,10 +1847,16 @@
     <t>数据集</t>
   </si>
   <si>
+    <t>加载数据</t>
+  </si>
+  <si>
+    <t>训练集测试集划分</t>
+  </si>
+  <si>
     <t>任务类型</t>
   </si>
   <si>
-    <t>梯度下降</t>
+    <t>训练方式</t>
   </si>
   <si>
     <t>训练机器</t>
@@ -1799,8 +1884,11 @@
     <t>自生成</t>
   </si>
   <si>
-    <t>（1）GradientDescentOptimizer
-（2）加载已有模型继续训练</t>
+    <t>否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+（1）加载已有模型继续训练</t>
   </si>
   <si>
     <t>本机-CPU</t>
@@ -1825,9 +1913,8 @@
     <t>图片分类</t>
   </si>
   <si>
-    <t xml:space="preserve">（1）GradientDescentOptimizer
-（2）加载已有模型继续训练
-（3）小批量梯度下降
+    <t xml:space="preserve">（1）加载已有模型继续训练
+（2）小批量梯度下降
 </t>
   </si>
   <si>
@@ -1840,8 +1927,11 @@
     <t>卷积神经网络</t>
   </si>
   <si>
-    <t xml:space="preserve">相对复杂-彩色图片
+    <t xml:space="preserve">数据相对复杂一点
 </t>
+  </si>
+  <si>
+    <t>fashion_mnist</t>
   </si>
 </sst>
 </file>
@@ -2058,18 +2148,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2460,7 +2544,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2484,16 +2568,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2502,89 +2586,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2594,8 +2678,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2603,46 +2702,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2654,43 +2747,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -3023,283 +3116,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="23"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="36" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="12"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3309,63 +3402,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="19" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="23" t="s">
+    <row r="40" s="22" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="23"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="23"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="23"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3401,176 +3494,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="32" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="35" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="23" t="s">
+    <row r="13" s="22" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" s="22" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="33" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" s="22" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="34"/>
-      <c r="B17" s="8" t="s">
+    <row r="17" s="22" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="37"/>
+      <c r="B17" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="35"/>
-      <c r="B18" s="8" t="s">
+    <row r="18" s="22" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="38"/>
+      <c r="B18" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" s="22" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3608,118 +3701,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="26"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -3770,53 +3863,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="25" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" s="22" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3847,327 +3940,327 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:8">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:8">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:8">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:8">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="14" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:8">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="14" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:8">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:8">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:8">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:8">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="14" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:8">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:8">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:8">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="14" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:8">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="14" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="14" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="18"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="14" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="18"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="14" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4187,7 +4280,7 @@
   <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D17" sqref="D17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4198,51 +4291,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="2" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4257,8 +4350,8 @@
   <sheetPr/>
   <dimension ref="B8:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4266,73 +4359,84 @@
     <col min="2" max="2" width="26.0265486725664" customWidth="1"/>
     <col min="3" max="3" width="31.3362831858407" customWidth="1"/>
     <col min="4" max="4" width="20.1238938053097" customWidth="1"/>
-    <col min="5" max="5" width="23.9646017699115" customWidth="1"/>
+    <col min="5" max="5" width="31.858407079646" customWidth="1"/>
     <col min="6" max="6" width="38.9646017699115" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" ht="54" spans="2:6">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="12" ht="76" customHeight="1" spans="5:6">
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
+    <row r="12" ht="76" customHeight="1" spans="2:6">
+      <c r="B12" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4346,129 +4450,275 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C12:L15"/>
+  <dimension ref="D2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="98.4778761061947" customWidth="1"/>
+    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6">
+      <c r="D2" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" ht="81" customHeight="1" spans="4:6">
+      <c r="D3" s="8"/>
+      <c r="E3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="6" spans="4:6">
+      <c r="D6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="4:6">
+      <c r="D7" s="11"/>
+      <c r="E7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="4:6">
+      <c r="D8" s="11"/>
+      <c r="E8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="12" ht="54" spans="4:6">
+      <c r="D12" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="4:6">
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" ht="106" customHeight="1" spans="4:6">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B12:M15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="15.2743362831858" customWidth="1"/>
-    <col min="4" max="4" width="25.5398230088496" customWidth="1"/>
-    <col min="5" max="5" width="9.24778761061947" customWidth="1"/>
-    <col min="6" max="7" width="13.4336283185841" customWidth="1"/>
-    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
-    <col min="9" max="9" width="14.0619469026549" customWidth="1"/>
-    <col min="10" max="10" width="35.8495575221239" customWidth="1"/>
-    <col min="11" max="11" width="13.3628318584071" customWidth="1"/>
-    <col min="12" max="12" width="20.929203539823" customWidth="1"/>
+    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
+    <col min="4" max="4" width="9.24778761061947" customWidth="1"/>
+    <col min="5" max="5" width="11.7256637168142" customWidth="1"/>
+    <col min="6" max="6" width="8.36283185840708" customWidth="1"/>
+    <col min="7" max="7" width="14.6814159292035" customWidth="1"/>
+    <col min="8" max="8" width="9.24778761061947" customWidth="1"/>
+    <col min="9" max="9" width="17.7610619469027" customWidth="1"/>
+    <col min="10" max="10" width="9.24778761061947" customWidth="1"/>
+    <col min="11" max="11" width="35.8495575221239" customWidth="1"/>
+    <col min="12" max="12" width="13.3628318584071" customWidth="1"/>
+    <col min="13" max="13" width="20.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:12">
+    <row r="12" spans="2:13">
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" ht="56" customHeight="1" spans="3:12">
+        <v>259</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="2:13">
+      <c r="B13" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>247</v>
+        <v>268</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="3:12">
-      <c r="C14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" ht="56" customHeight="1" spans="3:5">
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" t="s">
-        <v>260</v>
+      <c r="K13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="2:13">
+      <c r="B14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="2:13">
+      <c r="B15" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>261</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="M15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="7"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="sklearn-分类" sheetId="4" r:id="rId3"/>
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
-    <sheet name="opencv-推荐-案例" sheetId="8" r:id="rId6"/>
-    <sheet name="数据集" sheetId="10" r:id="rId7"/>
-    <sheet name="tensor-flow" sheetId="11" r:id="rId8"/>
-    <sheet name="深度-案例" sheetId="9" r:id="rId9"/>
+    <sheet name="【opencv-推荐-案例】" sheetId="8" r:id="rId6"/>
+    <sheet name="tf-API" sheetId="11" r:id="rId7"/>
+    <sheet name="数据集" sheetId="10" r:id="rId8"/>
+    <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="293">
   <si>
     <r>
       <rPr>
@@ -1701,72 +1701,7 @@
     <t>根据物品相似度</t>
   </si>
   <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>场景</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>下载地址</t>
-  </si>
-  <si>
-    <t>波士顿房屋价格-boston</t>
-  </si>
-  <si>
-    <t>线性模型-
-线性模型
-岭回归
-多项式回归</t>
-  </si>
-  <si>
-    <t>线性模型训练
-（经典教学）</t>
-  </si>
-  <si>
-    <t>鸢尾花-Iris</t>
-  </si>
-  <si>
-    <t>机器学习-分类
-（经典教学）</t>
-  </si>
-  <si>
-    <t>手写体识别-MNIST</t>
-  </si>
-  <si>
-    <t>全连接神经网络</t>
-  </si>
-  <si>
-    <t>深度学习-图片分类
-（经典教学）</t>
-  </si>
-  <si>
-    <t>训练集有 60000 个样本
-测试集有 10000 个样本
-28* 28 的灰度图像
-标签为"长度为10的一维数组"，它表示属于每个类别的相对概率，所以它用独热编码表示的。
-： 0~9  10个数字</t>
-  </si>
-  <si>
-    <t>http://yann.lecun.com/exdb/mnist/
-train-images-idx3-ubyte.gz:
-train-labels-idx1-ubyte.gz:
-t10k-images-idx3-ubyte.gz:
-t10k-labels-idx1-ubyte.gz:</t>
-  </si>
-  <si>
-    <t>服饰识别-FashionMNIST</t>
-  </si>
-  <si>
-    <t>卷积神经网络-自定义</t>
-  </si>
-  <si>
-    <t>它是时尚版的MNIST
-包括 60000 个训练集数据，
-10000 个测试集数据，
-每个数据为 28 * 28 灰度图像，一共有10个类型：</t>
+    <t>tensor_flow</t>
   </si>
   <si>
     <t>权重生成</t>
@@ -1835,6 +1770,96 @@
 self.train_op = optimizer.minimize(cost)</t>
   </si>
   <si>
+    <t>paddlepaddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#损失函数（均方误差 ）
+#(y-y')^2
+cost = fluid.layers.square_error_cost(input=pred_y,  # 预测值
+                               label=y  # 真实值
+                               )
+avg_cost = fluid.layers.mean(cost) #求和除以n
+</t>
+  </si>
+  <si>
+    <t># 梯度下降优化器
+optimizer = fluid.optimizer.SGD(  #SGD随机梯度下降
+    learning_rate=0.01  # 学习率
+)
+optimizer.minimize(avg_cost)#求极小值</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>场景</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>下载地址</t>
+  </si>
+  <si>
+    <t>波士顿房屋价格-boston</t>
+  </si>
+  <si>
+    <t>线性模型-
+线性模型
+岭回归
+多项式回归</t>
+  </si>
+  <si>
+    <t>线性模型训练
+（经典教学）</t>
+  </si>
+  <si>
+    <t>506个样本，13个特征，y是价格数据</t>
+  </si>
+  <si>
+    <t>鸢尾花-Iris</t>
+  </si>
+  <si>
+    <t>机器学习-分类
+（经典教学）</t>
+  </si>
+  <si>
+    <t>手写体识别-MNIST</t>
+  </si>
+  <si>
+    <t>全连接神经网络</t>
+  </si>
+  <si>
+    <t>深度学习-图片分类
+（经典教学）</t>
+  </si>
+  <si>
+    <t>训练集有 60000 个样本
+测试集有 10000 个样本
+28* 28 的灰度图像
+标签为"长度为10的一维数组"，它表示属于每个类别的相对概率，所以它用独热编码表示的。
+： 0~9  10个数字</t>
+  </si>
+  <si>
+    <t>http://yann.lecun.com/exdb/mnist/
+train-images-idx3-ubyte.gz:
+train-labels-idx1-ubyte.gz:
+t10k-images-idx3-ubyte.gz:
+t10k-labels-idx1-ubyte.gz:</t>
+  </si>
+  <si>
+    <t>服饰识别-FashionMNIST</t>
+  </si>
+  <si>
+    <t>卷积神经网络-自定义</t>
+  </si>
+  <si>
+    <t>它是时尚版的MNIST
+包括 60000 个训练集数据，
+10000 个测试集数据，
+每个数据为 28 * 28 灰度图像，一共有10个类型：</t>
+  </si>
+  <si>
     <t>难度</t>
   </si>
   <si>
@@ -1924,7 +1949,7 @@
     <t>服饰识别：</t>
   </si>
   <si>
-    <t>卷积神经网络</t>
+    <t>CNN-卷积神经网络</t>
   </si>
   <si>
     <t xml:space="preserve">数据相对复杂一点
@@ -1932,6 +1957,16 @@
   </si>
   <si>
     <t>fashion_mnist</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>多元回归，
+多个特征对应一个y</t>
+  </si>
+  <si>
+    <t>（1）小批量梯度下降</t>
   </si>
 </sst>
 </file>
@@ -2668,7 +2703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2678,17 +2713,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2696,26 +2743,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2755,9 +2790,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3119,65 +3151,65 @@
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" s="26"/>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
       <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3186,13 +3218,13 @@
     </row>
     <row r="10" ht="27" spans="1:5">
       <c r="A10" s="26"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
@@ -3342,32 +3374,32 @@
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="26"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="26"/>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3380,7 +3412,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3406,16 +3438,16 @@
       <c r="A40" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3503,58 +3535,58 @@
       <c r="A6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="26"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="26"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3562,7 +3594,7 @@
       <c r="A11" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
@@ -3575,95 +3607,95 @@
       <c r="A12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" s="22" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" s="22" customFormat="1" ht="78" customHeight="1" spans="1:5">
       <c r="A14" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" s="22" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" s="22" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" s="22" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" s="22" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3723,7 +3755,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="16" t="s">
         <v>115</v>
       </c>
@@ -3731,39 +3763,39 @@
       <c r="E7" s="16"/>
     </row>
     <row r="8" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
       <c r="A10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
       <c r="A13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
@@ -3782,7 +3814,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -3793,7 +3825,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3804,7 +3836,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3872,7 +3904,7 @@
       <c r="A6" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>136</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -3887,17 +3919,17 @@
       <c r="A7" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3926,8 +3958,8 @@
   <sheetPr/>
   <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4280,7 +4312,7 @@
   <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:F18"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4348,10 +4380,166 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="C2:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
+    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="98.4778761061947" customWidth="1"/>
+    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6">
+      <c r="C2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" ht="81" customHeight="1" spans="3:6">
+      <c r="C3" s="10"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="10"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="10"/>
+      <c r="D6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="10"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" ht="54" spans="3:6">
+      <c r="C12" s="10"/>
+      <c r="D12" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="3:6">
+      <c r="C13" s="10"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" ht="106" customHeight="1" spans="3:6">
+      <c r="C14" s="10"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" ht="94.5" spans="3:6">
+      <c r="C20" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D12:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B8:F12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4364,79 +4552,81 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>224</v>
+      <c r="D8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" ht="54" spans="2:6">
-      <c r="B9" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="D10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>234</v>
+        <v>254</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="15"/>
+        <v>258</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4447,115 +4637,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D2:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="98.4778761061947" customWidth="1"/>
-    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="4:6">
-      <c r="D2" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" ht="81" customHeight="1" spans="4:6">
-      <c r="D3" s="8"/>
-      <c r="E3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5">
-      <c r="E4" s="10"/>
-    </row>
-    <row r="6" spans="4:6">
-      <c r="D6" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="11"/>
-      <c r="E7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="4:6">
-      <c r="D8" s="11"/>
-      <c r="E8" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="12" ht="54" spans="4:6">
-      <c r="D12" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" ht="67.5" spans="4:6">
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" ht="106" customHeight="1" spans="4:6">
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:M15"/>
+  <dimension ref="B12:M18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4582,143 +4670,186 @@
         <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:13">
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:13">
       <c r="B14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="2:13">
+      <c r="B15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" ht="51" customHeight="1"/>
+    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:13">
+      <c r="B17" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="G17" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="I17" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" ht="56" customHeight="1" spans="2:13">
-      <c r="B15" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="M15" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" ht="49" customHeight="1" spans="3:11">
+      <c r="C18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="296">
   <si>
     <r>
       <rPr>
@@ -1866,6 +1866,9 @@
     <t>API-框架</t>
   </si>
   <si>
+    <t>极小值求法</t>
+  </si>
+  <si>
     <t>损失函数</t>
   </si>
   <si>
@@ -1894,13 +1897,18 @@
 线性模型</t>
   </si>
   <si>
-    <t>线性模型：y = 2x+5</t>
-  </si>
-  <si>
-    <t>基础</t>
+    <t xml:space="preserve">线性模型：y = 2x+5
+</t>
+  </si>
+  <si>
+    <t>基础
+一个x和一个y值</t>
   </si>
   <si>
     <t>tensorflow</t>
+  </si>
+  <si>
+    <t>梯度下降</t>
   </si>
   <si>
     <t>均方差</t>
@@ -1919,7 +1927,8 @@
     <t>本机-CPU</t>
   </si>
   <si>
-    <t>手写体识别：</t>
+    <t xml:space="preserve">手写体识别：
+</t>
   </si>
   <si>
     <t>全连接神经网络：
@@ -1935,7 +1944,8 @@
     <t>MNIST数据集</t>
   </si>
   <si>
-    <t>图片分类</t>
+    <t>图片分类
+（灰度）</t>
   </si>
   <si>
     <t xml:space="preserve">（1）加载已有模型继续训练
@@ -1946,7 +1956,8 @@
     <t>最后这个模型的精度：大约是 91% 或 92% 的样子，不能继续提升，</t>
   </si>
   <si>
-    <t>服饰识别：</t>
+    <t>服饰识别：
+（灰度）</t>
   </si>
   <si>
     <t>CNN-卷积神经网络</t>
@@ -1959,7 +1970,11 @@
     <t>fashion_mnist</t>
   </si>
   <si>
-    <t>paddle</t>
+    <t>（1）加载已有模型继续训练
+（2）小批量梯度下降</t>
+  </si>
+  <si>
+    <t>基础</t>
   </si>
   <si>
     <t>多元回归，
@@ -2183,18 +2198,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2579,7 +2588,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2603,16 +2612,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2621,89 +2630,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2713,14 +2722,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2734,7 +2737,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2743,9 +2746,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2758,10 +2758,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2770,7 +2770,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2797,13 +2797,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,68 +3148,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="26"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3217,21 +3217,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3242,7 +3242,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="26"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3266,7 +3266,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="26"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3292,7 +3292,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3338,7 +3338,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="26"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3349,7 +3349,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3373,33 +3373,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="26"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="26"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="35"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3412,7 +3412,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="27" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3434,25 +3434,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="22" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="26" t="s">
+    <row r="40" s="19" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="26"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3467,7 +3467,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="26"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="26"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3526,176 +3526,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="34" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="22" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" s="22" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="26" t="s">
+    <row r="13" s="19" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" s="22" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="35" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" s="19" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="22" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" s="19" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="33"/>
+      <c r="B17" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="22" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="34"/>
+      <c r="B18" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" s="22" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" s="19" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3733,73 +3733,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" s="22" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3814,7 +3814,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3895,41 +3895,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="22" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="28" t="s">
+    <row r="7" s="19" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4001,7 +4001,7 @@
       <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4058,13 +4058,13 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:8">
       <c r="B14" s="2" t="s">
@@ -4145,7 +4145,7 @@
       <c r="C18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="17" t="s">
         <v>183</v>
       </c>
       <c r="E18" s="2"/>
@@ -4200,7 +4200,7 @@
       <c r="C25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E25" s="2"/>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="18" t="s">
         <v>201</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4267,7 +4267,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="21"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>205</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="21"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>208</v>
       </c>
@@ -4323,7 +4323,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="2"/>
@@ -4383,7 +4383,7 @@
   <dimension ref="C2:F20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4392,13 +4392,14 @@
     <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
     <col min="5" max="5" width="98.4778761061947" customWidth="1"/>
     <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
+    <col min="7" max="7" width="50.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -4409,8 +4410,8 @@
       </c>
     </row>
     <row r="3" ht="81" customHeight="1" spans="3:6">
-      <c r="C3" s="10"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>225</v>
       </c>
@@ -4419,15 +4420,15 @@
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="10"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="10"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="10"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
         <v>227</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4436,33 +4437,33 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="10"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="10"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" ht="54" spans="3:6">
-      <c r="C12" s="10"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -4472,9 +4473,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" ht="67.5" spans="3:6">
-      <c r="C13" s="10"/>
-      <c r="D13" s="14"/>
+    <row r="13" ht="116" customHeight="1" spans="3:6">
+      <c r="C13" s="8"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>234</v>
       </c>
@@ -4483,8 +4484,8 @@
       </c>
     </row>
     <row r="14" ht="106" customHeight="1" spans="3:6">
-      <c r="C14" s="10"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1" t="s">
         <v>236</v>
       </c>
@@ -4493,31 +4494,31 @@
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="15"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="15"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="15"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="15"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="15"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" ht="94.5" spans="3:6">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D20" t="s">
         <v>231</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4539,7 +4540,7 @@
   <dimension ref="B8:F12"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4552,49 +4553,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" ht="54" spans="2:6">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4609,7 +4610,7 @@
       <c r="E11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       <c r="E12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4640,29 +4641,30 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:M18"/>
+  <dimension ref="B12:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
     <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
-    <col min="4" max="4" width="9.24778761061947" customWidth="1"/>
-    <col min="5" max="5" width="11.7256637168142" customWidth="1"/>
-    <col min="6" max="6" width="8.36283185840708" customWidth="1"/>
-    <col min="7" max="7" width="14.6814159292035" customWidth="1"/>
-    <col min="8" max="8" width="9.24778761061947" customWidth="1"/>
-    <col min="9" max="9" width="17.7610619469027" customWidth="1"/>
-    <col min="10" max="10" width="9.24778761061947" customWidth="1"/>
-    <col min="11" max="11" width="35.8495575221239" customWidth="1"/>
-    <col min="12" max="12" width="13.3628318584071" customWidth="1"/>
-    <col min="13" max="13" width="20.929203539823" customWidth="1"/>
+    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="13.8230088495575" customWidth="1"/>
+    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
+    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
+    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
+    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
+    <col min="11" max="11" width="9.24778761061947" customWidth="1"/>
+    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
+    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
+    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:14">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="F12" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>262</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -4690,165 +4692,182 @@
       <c r="J12" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>266</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="13" ht="56" customHeight="1" spans="2:13">
+      <c r="N12" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="2:14">
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="2:14">
+      <c r="B14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="51" customHeight="1"/>
+    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
+      <c r="B17" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="2:13">
-      <c r="B14" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" ht="56" customHeight="1" spans="2:13">
-      <c r="B15" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" ht="51" customHeight="1"/>
-    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:13">
-      <c r="B17" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" ht="49" customHeight="1" spans="3:11">
-      <c r="C18" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K18" t="s">
-        <v>292</v>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" ht="49" customHeight="1" spans="3:12">
+      <c r="C18" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L18" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="【opencv-推荐-案例】" sheetId="8" r:id="rId6"/>
     <sheet name="tf-API" sheetId="11" r:id="rId7"/>
     <sheet name="数据集" sheetId="10" r:id="rId8"/>
-    <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
+    <sheet name="问题划分" sheetId="12" r:id="rId9"/>
+    <sheet name="【深度-案例】" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="355">
   <si>
     <r>
       <rPr>
@@ -1308,6 +1309,9 @@
     <t>特征</t>
   </si>
   <si>
+    <t>任务类型</t>
+  </si>
+  <si>
     <t>数据特点</t>
   </si>
   <si>
@@ -1542,6 +1546,9 @@
   </si>
   <si>
     <t>lm.LogisticRegression</t>
+  </si>
+  <si>
+    <t>分类任务，文本数据</t>
   </si>
   <si>
     <t xml:space="preserve">鸢尾花
@@ -1642,6 +1649,9 @@
     <t>sc.KMeans(n_clusters=4)</t>
   </si>
   <si>
+    <t>聚类</t>
+  </si>
+  <si>
     <t>#multiple3.txt
 1.96,-0.09
 2.84,3.16
@@ -1792,6 +1802,9 @@
     <t>名字</t>
   </si>
   <si>
+    <t>场景示例：</t>
+  </si>
+  <si>
     <t>场景</t>
   </si>
   <si>
@@ -1807,7 +1820,8 @@
     <t>线性模型-
 线性模型
 岭回归
-多项式回归</t>
+多项式回归
+全连接神经网络</t>
   </si>
   <si>
     <t>线性模型训练
@@ -1830,8 +1844,20 @@
     <t>全连接神经网络</t>
   </si>
   <si>
-    <t>深度学习-图片分类
-（经典教学）</t>
+    <r>
+      <t xml:space="preserve">深度学习-图片分类
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（经典教学）</t>
+    </r>
   </si>
   <si>
     <t>训练集有 60000 个样本
@@ -1860,6 +1886,158 @@
 每个数据为 28 * 28 灰度图像，一共有10个类型：</t>
   </si>
   <si>
+    <t>CIFAR10</t>
+  </si>
+  <si>
+    <t>6万张彩色的图像，32*32三通道，彩色图像
+共有10个类别，每个类别6000张，
+50000张训练集，10000张测试集</t>
+  </si>
+  <si>
+    <t>ImageNet数据集</t>
+  </si>
+  <si>
+    <t>图像识别比赛使用的</t>
+  </si>
+  <si>
+    <t>1400多万张，
+1000个类别</t>
+  </si>
+  <si>
+    <t>http://www.image-net.org/</t>
+  </si>
+  <si>
+    <t>FDDB</t>
+  </si>
+  <si>
+    <t>人脸数据集</t>
+  </si>
+  <si>
+    <t>共2845张图像</t>
+  </si>
+  <si>
+    <t>http://vis-www.cs.umass.edu/fddb/index.hmtl#download</t>
+  </si>
+  <si>
+    <t>WIDER Face</t>
+  </si>
+  <si>
+    <t>32203张图像，
+393703张人脸</t>
+  </si>
+  <si>
+    <t>opencv来实现：种类不多，样本不多，差别不大，</t>
+  </si>
+  <si>
+    <t>深度学习来实现：种类多，情况复杂</t>
+  </si>
+  <si>
+    <t>业务需求</t>
+  </si>
+  <si>
+    <t>问题分类</t>
+  </si>
+  <si>
+    <t>马路摄像头</t>
+  </si>
+  <si>
+    <t>有没有违章</t>
+  </si>
+  <si>
+    <t>图片分类问题</t>
+  </si>
+  <si>
+    <t>检测出违章车辆</t>
+  </si>
+  <si>
+    <t>目标检测问题</t>
+  </si>
+  <si>
+    <t>违章车辆的车牌号码是多少</t>
+  </si>
+  <si>
+    <t>OCR 光学字符识别</t>
+  </si>
+  <si>
+    <t>车站安检系统</t>
+  </si>
+  <si>
+    <t>包里面 "有没有违禁品"</t>
+  </si>
+  <si>
+    <t>考勤打卡</t>
+  </si>
+  <si>
+    <t>这是哪一个员工</t>
+  </si>
+  <si>
+    <t>实例级，图像分类</t>
+  </si>
+  <si>
+    <t>生物种群数量统计</t>
+  </si>
+  <si>
+    <t>统计这片海洋，有多少鲸鱼
+这片山有多少只山羊</t>
+  </si>
+  <si>
+    <t>图像分类和目标检测</t>
+  </si>
+  <si>
+    <t>工业质检</t>
+  </si>
+  <si>
+    <t>合格与不合格：</t>
+  </si>
+  <si>
+    <t>二分类</t>
+  </si>
+  <si>
+    <t>不合格原因、气泡、划痕等</t>
+  </si>
+  <si>
+    <t>多分类</t>
+  </si>
+  <si>
+    <t>定位瑕疵区域</t>
+  </si>
+  <si>
+    <t>目标检测</t>
+  </si>
+  <si>
+    <t>工地案例检测</t>
+  </si>
+  <si>
+    <t>是否佩戴案例帽</t>
+  </si>
+  <si>
+    <t>是否有抽烟的</t>
+  </si>
+  <si>
+    <t>病虫害的识别</t>
+  </si>
+  <si>
+    <t>有没有病虫害</t>
+  </si>
+  <si>
+    <t>paddle上面有案例</t>
+  </si>
+  <si>
+    <t>病虫害的类别</t>
+  </si>
+  <si>
+    <t>医疗诊断</t>
+  </si>
+  <si>
+    <t>机械手臂</t>
+  </si>
+  <si>
+    <t>U-net 模型</t>
+  </si>
+  <si>
+    <t>病变识别</t>
+  </si>
+  <si>
     <t>难度</t>
   </si>
   <si>
@@ -1879,9 +2057,6 @@
   </si>
   <si>
     <t>训练集测试集划分</t>
-  </si>
-  <si>
-    <t>任务类型</t>
   </si>
   <si>
     <t>训练方式</t>
@@ -1917,9 +2092,6 @@
     <t>自生成</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 （1）加载已有模型继续训练</t>
   </si>
@@ -1944,7 +2116,7 @@
     <t>MNIST数据集</t>
   </si>
   <si>
-    <t>图片分类
+    <t>分类任务——图片
 （灰度）</t>
   </si>
   <si>
@@ -1960,7 +2132,8 @@
 （灰度）</t>
   </si>
   <si>
-    <t>CNN-卷积神经网络</t>
+    <t>CNN-卷积神经网络
+-自定义</t>
   </si>
   <si>
     <t xml:space="preserve">数据相对复杂一点
@@ -1981,7 +2154,33 @@
 多个特征对应一个y</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>（1）小批量梯度下降</t>
+  </si>
+  <si>
+    <t>水果分类</t>
+  </si>
+  <si>
+    <t>CNN-卷积神经网络：
+3个卷积+2个全连接</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>自收集</t>
+  </si>
+  <si>
+    <t>分类任务——图片
+（彩色）</t>
+  </si>
+  <si>
+    <t>AI-studio</t>
+  </si>
+  <si>
+    <t>CNN-（模仿VGG-19）</t>
   </si>
 </sst>
 </file>
@@ -2198,12 +2397,30 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2588,7 +2805,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2612,16 +2829,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2630,89 +2847,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2722,31 +2939,85 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2758,10 +3029,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2770,7 +3041,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,16 +3065,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3148,68 +3416,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3217,21 +3485,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="23"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3242,7 +3510,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="23"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3251,7 +3519,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3266,7 +3534,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="23"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3547,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="41" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3292,7 +3560,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3303,7 +3571,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3314,7 +3582,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3325,7 +3593,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3338,7 +3606,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3349,7 +3617,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3360,7 +3628,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3373,33 +3641,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="23"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="35"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3412,7 +3680,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3434,25 +3702,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="19" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="23" t="s">
+    <row r="40" s="37" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="23"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3467,7 +3735,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="23"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3480,7 +3748,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="23"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3503,6 +3771,327 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B12:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
+    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="18.0176991150442" customWidth="1"/>
+    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
+    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
+    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
+    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
+    <col min="11" max="11" width="17.353982300885" customWidth="1"/>
+    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
+    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
+    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:14">
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="2:14">
+      <c r="B13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="2:14">
+      <c r="B14" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" ht="51" customHeight="1"/>
+    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
+      <c r="B17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" ht="49" customHeight="1" spans="2:14">
+      <c r="B18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" ht="49" customHeight="1" spans="2:14">
+      <c r="B19" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="2:14">
+      <c r="B20" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="N20" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3526,176 +4115,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="31" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="19" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" s="19" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="23" t="s">
+    <row r="13" s="37" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" s="37" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" s="19" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="32" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" s="37" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" s="37" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="19" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="33"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" s="37" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="50"/>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="19" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="34"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" s="37" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="51"/>
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" s="19" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" s="37" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3733,73 +4322,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" s="19" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" s="37" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="41" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3814,7 +4403,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -3825,7 +4414,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3836,7 +4425,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3895,41 +4484,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="42" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="25" t="s">
+    <row r="7" s="37" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3956,22 +4545,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:H31"/>
+  <dimension ref="B9:I31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.4336283185841" customWidth="1"/>
     <col min="3" max="3" width="35.6017699115044" customWidth="1"/>
     <col min="4" max="4" width="47.7964601769912" customWidth="1"/>
-    <col min="5" max="7" width="26.353982300885" customWidth="1"/>
-    <col min="8" max="8" width="118.743362831858" customWidth="1"/>
+    <col min="5" max="8" width="26.353982300885" customWidth="1"/>
+    <col min="9" max="9" width="118.743362831858" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
@@ -3993,307 +4582,359 @@
       <c r="H9" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" ht="150" customHeight="1" spans="2:8">
+      <c r="I9" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" ht="150" customHeight="1" spans="2:9">
       <c r="B10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="14" t="s">
         <v>155</v>
       </c>
+      <c r="D10" s="32" t="s">
+        <v>156</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="1" t="s">
-        <v>157</v>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" ht="55" customHeight="1" spans="2:8">
+      <c r="I10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" ht="55" customHeight="1" spans="2:9">
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>157</v>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" ht="53" customHeight="1" spans="2:8">
+        <v>158</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" ht="53" customHeight="1" spans="2:9">
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>157</v>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" ht="53" customHeight="1" spans="2:8">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" ht="108" customHeight="1" spans="2:8">
+        <v>158</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" ht="53" customHeight="1" spans="2:9">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="2:8">
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="2:9">
       <c r="B15" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" ht="70" customHeight="1" spans="2:8">
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" ht="70" customHeight="1" spans="2:9">
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" ht="22" customHeight="1" spans="2:8">
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="2:9">
       <c r="B17" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" ht="34" customHeight="1" spans="2:8">
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" ht="34" customHeight="1" spans="2:9">
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="17" t="s">
         <v>183</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" ht="94.5" spans="2:8">
+      <c r="G18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" ht="94.5" spans="2:9">
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1" spans="2:8">
+      <c r="G23" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" ht="26" customHeight="1" spans="2:9">
       <c r="B24" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="25" ht="58" customHeight="1" spans="2:8">
+      <c r="G24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" ht="58" customHeight="1" spans="2:9">
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>192</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" ht="108" spans="2:8">
+        <v>187</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" ht="108" spans="2:9">
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" ht="100" customHeight="1" spans="2:8">
+      <c r="G26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" ht="100" customHeight="1" spans="2:9">
       <c r="B27" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1" t="s">
-        <v>200</v>
+      <c r="G27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
-    <row r="29" ht="67.5" spans="2:8">
-      <c r="B29" s="18" t="s">
-        <v>201</v>
+    <row r="29" ht="67.5" spans="2:9">
+      <c r="B29" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" ht="67.5" spans="2:8">
-      <c r="B30" s="18"/>
+      <c r="G29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="2:9">
+      <c r="B30" s="36"/>
       <c r="C30" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" ht="67.5" spans="2:8">
-      <c r="B31" s="18"/>
+      <c r="G30" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" ht="67.5" spans="2:9">
+      <c r="B31" s="36"/>
       <c r="C31" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="1" t="s">
-        <v>207</v>
+      <c r="G31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4323,52 +4964,52 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="13" t="s">
-        <v>210</v>
+      <c r="D10" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4382,8 +5023,8 @@
   <sheetPr/>
   <dimension ref="C2:F20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4396,130 +5037,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>222</v>
+      <c r="C2" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>225</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" ht="81" customHeight="1" spans="3:6">
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="3:5">
-      <c r="C4" s="8"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="25"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="8"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="8"/>
-      <c r="D6" s="11" t="s">
-        <v>227</v>
+      <c r="C6" s="25"/>
+      <c r="D6" s="29" t="s">
+        <v>230</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="8"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" ht="54" spans="3:6">
-      <c r="C12" s="8"/>
-      <c r="D12" s="11" t="s">
-        <v>231</v>
+      <c r="C12" s="25"/>
+      <c r="D12" s="29" t="s">
+        <v>234</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" ht="116" customHeight="1" spans="3:6">
-      <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" ht="106" customHeight="1" spans="3:6">
+      <c r="C14" s="25"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="30"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" ht="94.5" spans="3:6">
+      <c r="C20" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" t="s">
         <v>234</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" ht="106" customHeight="1" spans="3:6">
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" ht="94.5" spans="3:6">
-      <c r="C20" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>240</v>
+      <c r="E20" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4537,10 +5178,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:F12"/>
+  <dimension ref="B8:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4548,90 +5189,146 @@
     <col min="2" max="2" width="26.0265486725664" customWidth="1"/>
     <col min="3" max="3" width="31.3362831858407" customWidth="1"/>
     <col min="4" max="4" width="20.1238938053097" customWidth="1"/>
-    <col min="5" max="5" width="31.858407079646" customWidth="1"/>
-    <col min="6" max="6" width="38.9646017699115" customWidth="1"/>
+    <col min="5" max="5" width="24.4955752212389" customWidth="1"/>
+    <col min="6" max="6" width="57.1504424778761" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="19" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="9" ht="54" spans="2:6">
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D8" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E8" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F8" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="5"/>
+    </row>
+    <row r="9" ht="81" spans="2:6">
+      <c r="B9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>262</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" ht="60" customHeight="1" spans="2:6">
+      <c r="B13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="43" customHeight="1" spans="2:6">
+      <c r="B14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="2:6">
+      <c r="B16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" display="http://yann.lecun.com/exdb/mnist/&#10;train-images-idx3-ubyte.gz:&#10;train-labels-idx1-ubyte.gz:&#10;t10k-images-idx3-ubyte.gz:&#10;t10k-labels-idx1-ubyte.gz:" tooltip="http://yann.lecun.com/exdb/mnist/"/>
+    <hyperlink ref="F14" r:id="rId2" display="http://www.image-net.org/"/>
+    <hyperlink ref="F15" r:id="rId3" display="http://vis-www.cs.umass.edu/fddb/index.hmtl#download"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4641,236 +5338,210 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N18"/>
+  <dimension ref="C5:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
-    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="13.8230088495575" customWidth="1"/>
-    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
-    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
-    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
-    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
-    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
-    <col min="11" max="11" width="9.24778761061947" customWidth="1"/>
-    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
-    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
-    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+    <col min="6" max="6" width="20.2477876106195" customWidth="1"/>
+    <col min="7" max="7" width="31.2035398230088" customWidth="1"/>
+    <col min="8" max="8" width="22.0442477876106" customWidth="1"/>
+    <col min="9" max="9" width="26.4247787610619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="2:14">
-      <c r="B12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="1" t="s">
+    <row r="5" spans="3:6">
+      <c r="C5" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="H9" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="M13" s="1" t="s">
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="H10" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H11" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H14" s="2" t="s">
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="L14" s="1" t="s">
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="G13" s="13" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="3" t="s">
+      <c r="H13" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G14" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="H14" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="2" t="s">
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="6:8">
+      <c r="F15" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="G15" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" ht="51" customHeight="1"/>
-    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="H15" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" ht="49" customHeight="1" spans="3:12">
-      <c r="C18" s="4" t="s">
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="L18" t="s">
+      <c r="G16" s="13" t="s">
         <v>295</v>
       </c>
-    </row>
+      <c r="H16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="6:9">
+      <c r="F23" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="26" ht="12" customHeight="1"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -13,10 +13,10 @@
     <sheet name="sklearn-聚类" sheetId="7" r:id="rId4"/>
     <sheet name="sklearn-案例" sheetId="2" r:id="rId5"/>
     <sheet name="【opencv-推荐-案例】" sheetId="8" r:id="rId6"/>
-    <sheet name="tf-API" sheetId="11" r:id="rId7"/>
-    <sheet name="数据集" sheetId="10" r:id="rId8"/>
-    <sheet name="问题划分" sheetId="12" r:id="rId9"/>
-    <sheet name="【深度-案例】" sheetId="9" r:id="rId10"/>
+    <sheet name="数据集" sheetId="10" r:id="rId7"/>
+    <sheet name="问题划分" sheetId="12" r:id="rId8"/>
+    <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
+    <sheet name="部署" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="342">
   <si>
     <r>
       <rPr>
@@ -1711,94 +1711,6 @@
     <t>根据物品相似度</t>
   </si>
   <si>
-    <t>tensor_flow</t>
-  </si>
-  <si>
-    <t>权重生成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w = tf.Variable(tf.random_normal(shape=[784, 10])) </t>
-  </si>
-  <si>
-    <t>随机正太分布</t>
-  </si>
-  <si>
-    <t>w = tf.Variable(tf.truncated_normal(shape=[5,5,input_feature,out_feature],mean=0,stddev=0.1))</t>
-  </si>
-  <si>
-    <t>（1）截尾正太分布-波动更小。
-（2）生成一个四维的权重张量。</t>
-  </si>
-  <si>
-    <t>偏置生成</t>
-  </si>
-  <si>
-    <t>b = tf.Variable(0.0,trainable=True)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b = tf.Variable(tf.zeros(shape=[10])) </t>
-  </si>
-  <si>
-    <t>b = tf.Variable(tf.constant(1.0, shape=shape))</t>
-  </si>
-  <si>
-    <t>损失函数与梯度下降</t>
-  </si>
-  <si>
-    <t>#损失函数：均方误差 Σ((y-y')^2)/n
-loss = tf.reduce_mean(tf.square(y - pred_y))</t>
-  </si>
-  <si>
-    <t>#梯度下降，求损失函数的极不值#使用 “梯度下降优化器，求损失函数的极小值”
-train_op = tf.train.GradientDescentOptimizer(0.1 #学习率
-                                  ).minimize(loss)</t>
-  </si>
-  <si>
-    <t># （5）损失函数：交叉熵 -Σ(真实概率 * log(预测概率))
-loss = -tf.reduce_sum(y * tf.log(pred_y),
-                      reduction_indices=1  # 水平方向求和
-                      )
-cost = tf.reduce_mean(loss)  # 平均交叉熵</t>
-  </si>
-  <si>
-    <t># （6）梯度下降
-train_op = tf.train.GradientDescentOptimizer(0.01 #学习率
-                                             ).minimize(cost)</t>
-  </si>
-  <si>
-    <t># 先计算softmax，再计算交叉熵
-loss = tf.nn.softmax_cross_entropy_with_logits(
- labels=self.y, #真实值
- logits=pred_y  #预测值
-)
-#对损失函数求均值
-cost = tf.reduce_mean(loss)</t>
-  </si>
-  <si>
-    <t># #自适应梯度下降优化器，在梯度下降过程中会 "自动调整学习率"
-optimizer = tf.train.AdamOptimizer(0.001)# 0.001 是初始的学习率
-self.train_op = optimizer.minimize(cost)</t>
-  </si>
-  <si>
-    <t>paddlepaddle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#损失函数（均方误差 ）
-#(y-y')^2
-cost = fluid.layers.square_error_cost(input=pred_y,  # 预测值
-                               label=y  # 真实值
-                               )
-avg_cost = fluid.layers.mean(cost) #求和除以n
-</t>
-  </si>
-  <si>
-    <t># 梯度下降优化器
-optimizer = fluid.optimizer.SGD(  #SGD随机梯度下降
-    learning_rate=0.01  # 学习率
-)
-optimizer.minimize(avg_cost)#求极小值</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
@@ -1926,10 +1838,10 @@
 393703张人脸</t>
   </si>
   <si>
-    <t>opencv来实现：种类不多，样本不多，差别不大，</t>
-  </si>
-  <si>
-    <t>深度学习来实现：种类多，情况复杂</t>
+    <t>opencv来实现：种类不多，样本不多，差别不大。</t>
+  </si>
+  <si>
+    <t>深度学习来实现：种类多，情况复杂，问题复杂。</t>
   </si>
   <si>
     <t>业务需求</t>
@@ -2150,6 +2062,9 @@
     <t>基础</t>
   </si>
   <si>
+    <t>paddlepaddle</t>
+  </si>
+  <si>
     <t>多元回归，
 多个特征对应一个y</t>
   </si>
@@ -2180,7 +2095,33 @@
     <t>AI-studio</t>
   </si>
   <si>
-    <t>CNN-（模仿VGG-19）</t>
+    <t>CNN-（VGG-19）</t>
+  </si>
+  <si>
+    <t>瓷砖瑕疵分类</t>
+  </si>
+  <si>
+    <t>CNN -有两个模型
+（1）GG-19
+（2）自己的</t>
+  </si>
+  <si>
+    <t>一般
+（数据复复杂）</t>
+  </si>
+  <si>
+    <t>一个实际工厂</t>
+  </si>
+  <si>
+    <t>（1）数据增强
+（2）加载已有模型继续训练
+（3）批批量梯度下降</t>
+  </si>
+  <si>
+    <t>要训练很久，
+正确率才能越来
+ Cost:1.707108, ACC:0.700368
+这个值训练很久，才有变化，至少70 80轮以上。</t>
   </si>
 </sst>
 </file>
@@ -2929,7 +2870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2960,6 +2901,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3005,62 +2952,47 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3416,68 +3348,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="41"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3485,21 +3417,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="41"/>
-      <c r="B10" s="29" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3510,7 +3442,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="41"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3519,7 +3451,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3534,7 +3466,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="41"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3547,7 +3479,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3560,7 +3492,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="41"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3571,7 +3503,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="41"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3582,7 +3514,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="41"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3593,7 +3525,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3606,7 +3538,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="41"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3617,7 +3549,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="41"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3628,7 +3560,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="41"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3641,33 +3573,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="41"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="52"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="52" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="52"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3680,7 +3612,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3702,25 +3634,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="37" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="41" t="s">
+    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="41"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3735,7 +3667,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="41"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3748,7 +3680,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="41"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3778,319 +3710,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N20"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
-    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="18.0176991150442" customWidth="1"/>
-    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
-    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
-    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
-    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
-    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
-    <col min="11" max="11" width="17.353982300885" customWidth="1"/>
-    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
-    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
-    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
+    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="50.929203539823" customWidth="1"/>
+    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
+    <col min="7" max="7" width="50.6283185840708" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="12" spans="2:14">
-      <c r="B12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" ht="51" customHeight="1"/>
-    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" ht="49" customHeight="1" spans="2:14">
-      <c r="B19" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="41" customHeight="1" spans="2:14">
-      <c r="B20" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="N20" s="10"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4115,176 +3749,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="41"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="41"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="48" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="37" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="14" s="37" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="41" t="s">
+    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" s="37" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" s="37" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="49" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="37" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="47"/>
+      <c r="B17" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="37" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="51"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="48"/>
+      <c r="B18" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" s="37" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4322,73 +3956,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="41"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="8" s="37" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4403,7 +4037,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="29"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4414,7 +4048,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="29"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4425,7 +4059,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4484,41 +4118,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="37" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="43" t="s">
+    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4593,7 +4227,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4659,14 +4293,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4759,7 +4393,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="31" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4823,7 +4457,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="31" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4882,7 +4516,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4902,7 +4536,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="36"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4920,7 +4554,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="36"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4964,7 +4598,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="27" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -5019,163 +4653,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C2:F20"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="98.4778761061947" customWidth="1"/>
-    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
-    <col min="7" max="7" width="50.6283185840708" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:6">
-      <c r="C2" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" ht="81" customHeight="1" spans="3:6">
-      <c r="C3" s="25"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="25"/>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="25"/>
-      <c r="D6" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="25"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="25"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" ht="54" spans="3:6">
-      <c r="C12" s="25"/>
-      <c r="D12" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" ht="116" customHeight="1" spans="3:6">
-      <c r="C13" s="25"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" ht="106" customHeight="1" spans="3:6">
-      <c r="C14" s="25"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="30"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" ht="94.5" spans="3:6">
-      <c r="C20" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>243</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D12:D14"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B8:F16"/>
@@ -5194,133 +4671,133 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>248</v>
+      <c r="B8" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="B9" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="D10" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>259</v>
+        <v>238</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>257</v>
+        <v>241</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>242</v>
+      </c>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="23" t="s">
-        <v>264</v>
+      <c r="E13" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>268</v>
+      <c r="E14" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>272</v>
+        <v>251</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
       <c r="B16" s="7" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="23" t="s">
-        <v>274</v>
+      <c r="E16" s="25" t="s">
+        <v>254</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -5335,13 +4812,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C5:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5353,180 +4830,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="6:8">
+      <c r="F15" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="H16" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="9" spans="6:8">
-      <c r="F9" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="13" t="s">
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+    <row r="18" spans="6:8">
+      <c r="F18" s="14"/>
+      <c r="G18" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="H18" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="13" t="s">
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="14" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="13" t="s">
+      <c r="G19" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="14"/>
+      <c r="G20" s="15" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="G21" s="15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="13" spans="6:8">
-      <c r="F13" s="13" t="s">
+      <c r="H21" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G13" s="13" t="s">
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="14"/>
+      <c r="G22" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
-      <c r="F14" s="13" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="6:9">
+      <c r="F23" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G23" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="20" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="13" t="s">
+    <row r="24" spans="6:9">
+      <c r="F24" s="14"/>
+      <c r="G24" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5545,4 +5022,364 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A12:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
+    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="18.0176991150442" customWidth="1"/>
+    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
+    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
+    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
+    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
+    <col min="11" max="11" width="17.353982300885" customWidth="1"/>
+    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
+    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
+    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:14">
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1" spans="2:14">
+      <c r="B13" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="49" customHeight="1" spans="2:14">
+      <c r="B14" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" ht="56" customHeight="1" spans="2:14">
+      <c r="B15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" ht="51" customHeight="1"/>
+    <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
+      <c r="B17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" ht="49" customHeight="1" spans="2:14">
+      <c r="B18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" ht="49" customHeight="1" spans="2:14">
+      <c r="B19" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="1:14">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" ht="103" customHeight="1" spans="1:14">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="9"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="数据集" sheetId="10" r:id="rId7"/>
     <sheet name="问题划分" sheetId="12" r:id="rId8"/>
     <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
-    <sheet name="部署" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="343">
   <si>
     <r>
       <rPr>
@@ -1757,6 +1756,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">深度学习-图片分类
 </t>
     </r>
@@ -2121,7 +2127,12 @@
     <t>要训练很久，
 正确率才能越来
  Cost:1.707108, ACC:0.700368
-这个值训练很久，才有变化，至少70 80轮以上。</t>
+这个值训练很久，才有变化，至少70 80轮以上。
+到大后期，再设置
+训练过程中，可以修改轮数 和 学习率前面学习率是0.001，后面可以修改为0.0001</t>
+  </si>
+  <si>
+    <t>动态调整学习率</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2349,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2354,18 +2365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2746,7 +2745,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2770,16 +2769,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2788,89 +2787,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2886,33 +2885,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2946,10 +2924,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2958,10 +2933,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2970,7 +2945,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2997,13 +2972,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3017,9 +2992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3348,68 +3320,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="32" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3417,21 +3389,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3442,7 +3414,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3451,7 +3423,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3466,7 +3438,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="37"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3479,7 +3451,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3492,7 +3464,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="37"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3503,7 +3475,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="37"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3514,7 +3486,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="37"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3525,7 +3497,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3538,7 +3510,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3549,7 +3521,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="37"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3560,7 +3532,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="37"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3573,33 +3545,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="49" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="49"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="49"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3612,7 +3584,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3634,25 +3606,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="37" t="s">
+    <row r="40" s="25" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="37"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3667,7 +3639,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="37"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3680,7 +3652,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="37"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3703,29 +3675,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="22.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="50.929203539823" customWidth="1"/>
-    <col min="6" max="6" width="58.1504424778761" customWidth="1"/>
-    <col min="7" max="7" width="50.6283185840708" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3749,176 +3698,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="37" t="s">
+    <row r="13" s="25" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" s="25" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="46" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" s="25" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" s="25" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" s="25" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="39"/>
+      <c r="B17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" s="25" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="40"/>
+      <c r="B18" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" s="25" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3956,73 +3905,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" s="25" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4037,7 +3986,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4048,7 +3997,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4059,7 +4008,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4118,41 +4067,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="30" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="39" t="s">
+    <row r="7" s="25" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4227,7 +4176,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="20" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4293,14 +4242,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4393,7 +4342,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="23" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4457,7 +4406,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="23" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4516,7 +4465,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="24" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4536,7 +4485,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="32"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4554,7 +4503,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="32"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4598,7 +4547,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4671,49 +4620,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="14" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4722,13 +4671,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="15" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="16" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4739,67 +4688,67 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="15" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="25" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="18" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="18" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4830,180 +4779,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="8" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="16"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="8" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="8" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="8" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="14"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="8" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="14"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="8"/>
+      <c r="I23" s="13" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="14"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="13"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5027,10 +4976,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:N21"/>
+  <dimension ref="B12:N24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5167,7 +5116,7 @@
       <c r="B15" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>320</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -5203,179 +5152,182 @@
       <c r="B17" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="9"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" ht="41" customHeight="1" spans="1:14">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" ht="41" customHeight="1" spans="2:14">
+      <c r="B20" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" ht="103" customHeight="1" spans="1:14">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" ht="210" customHeight="1" spans="2:14">
+      <c r="B21" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="3" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4979,7 +4979,7 @@
   <dimension ref="B12:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="346">
   <si>
     <r>
       <rPr>
@@ -2132,7 +2132,20 @@
 训练过程中，可以修改轮数 和 学习率前面学习率是0.001，后面可以修改为0.0001</t>
   </si>
   <si>
-    <t>动态调整学习率</t>
+    <t>螺栓_螺母检测</t>
+  </si>
+  <si>
+    <t>YOLO3
+-完整版
+-精简版</t>
+  </si>
+  <si>
+    <t>中等</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）动态调整学习率
+（2）激活函数 leaky_relu，是relu的修正版本
+</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2362,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2365,6 +2378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2745,7 +2764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2769,16 +2788,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2787,89 +2806,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2891,6 +2910,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2933,10 +2958,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2945,7 +2970,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2972,13 +2997,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3320,68 +3345,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3389,21 +3414,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3414,7 +3439,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3423,7 +3448,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3438,7 +3463,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3476,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3464,7 +3489,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3475,7 +3500,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3486,7 +3511,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3497,7 +3522,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3510,7 +3535,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3546,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3532,7 +3557,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3545,33 +3570,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="29"/>
-      <c r="B30" s="8" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="29"/>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3584,7 +3609,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3606,25 +3631,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="25" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="29" t="s">
+    <row r="40" s="27" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="29"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3639,7 +3664,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="29"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3652,7 +3677,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3698,176 +3723,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="29"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="37" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="25" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" s="25" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="29" t="s">
+    <row r="13" s="27" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" s="27" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" s="25" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" s="25" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" s="27" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="25" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="39"/>
-      <c r="B17" s="14" t="s">
+    <row r="17" s="27" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="41"/>
+      <c r="B17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="25" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="40"/>
-      <c r="B18" s="14" t="s">
+    <row r="18" s="27" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="42"/>
+      <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" s="25" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" s="27" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3905,73 +3930,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="19" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" s="25" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3986,7 +4011,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -3997,7 +4022,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4008,7 +4033,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4067,41 +4092,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="25" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="31" t="s">
+    <row r="7" s="27" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4176,7 +4201,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4242,14 +4267,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4342,7 +4367,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="25" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4406,7 +4431,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="25" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4465,7 +4490,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="26" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4485,7 +4510,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="24"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4503,7 +4528,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="24"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4547,7 +4572,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4620,49 +4645,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4671,13 +4696,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4688,13 +4713,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="17" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4718,7 +4743,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="20" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4733,7 +4758,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4779,180 +4804,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="9"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="9"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="7"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="13" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="7"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -4978,8 +5003,8 @@
   <sheetPr/>
   <dimension ref="B12:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5325,10 +5350,34 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="12:12">
-      <c r="L24" t="s">
+    <row r="24" ht="44" customHeight="1" spans="2:14">
+      <c r="B24" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="C24" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="N24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -2146,6 +2146,30 @@
     <t xml:space="preserve">（1）动态调整学习率
 （2）激活函数 leaky_relu，是relu的修正版本
 </t>
+  </si>
+  <si>
+    <t>瓷砖瑕疵检测</t>
+  </si>
+  <si>
+    <t>从遥感图像上检测高尔夫球场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检测铁轨病害 </t>
+  </si>
+  <si>
+    <t>检测高压线周边安全隐患</t>
+  </si>
+  <si>
+    <t>检测生成车间员工行为</t>
+  </si>
+  <si>
+    <t>检测雪茄烟的数量</t>
+  </si>
+  <si>
+    <t>手机屏幕瑕疵检测</t>
+  </si>
+  <si>
+    <t>自动插秧机的株距和行距</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2915,6 +2939,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3345,68 +3375,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3414,21 +3444,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3439,7 +3469,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3478,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3463,7 +3493,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3476,7 +3506,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3489,7 +3519,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3500,7 +3530,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3511,7 +3541,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3522,7 +3552,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3535,7 +3565,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="31"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3576,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="31"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3557,7 +3587,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="31"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3570,33 +3600,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3609,7 +3639,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3631,25 +3661,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="27" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="31" t="s">
+    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="31"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3664,7 +3694,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="31"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3677,7 +3707,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3723,176 +3753,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" s="27" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="31" t="s">
+    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" s="27" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="41"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="43"/>
+      <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="42"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="44"/>
+      <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" s="27" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3930,73 +3960,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4011,7 +4041,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4022,7 +4052,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4033,7 +4063,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4092,41 +4122,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="27" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="33" t="s">
+    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4201,7 +4231,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4267,14 +4297,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4367,7 +4397,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="27" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4431,7 +4461,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="27" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4490,7 +4520,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4510,7 +4540,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="26"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4528,7 +4558,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="26"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4572,7 +4602,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="23" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4645,49 +4675,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4696,13 +4726,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="20" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4713,13 +4743,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4743,7 +4773,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="22" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4758,7 +4788,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="22" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4804,180 +4834,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="11"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="11"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="12" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="12" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="12" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="12" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="9"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5001,10 +5031,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N24"/>
+  <dimension ref="B12:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5379,7 +5409,156 @@
       </c>
       <c r="N24" s="7"/>
     </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C31:N31"/>
+    <mergeCell ref="C32:N32"/>
+    <mergeCell ref="B25:B32"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="357">
   <si>
     <r>
       <rPr>
@@ -2170,6 +2170,15 @@
   </si>
   <si>
     <t>自动插秧机的株距和行距</t>
+  </si>
+  <si>
+    <t>城市道路分割</t>
+  </si>
+  <si>
+    <t>DeepLab_v3+</t>
+  </si>
+  <si>
+    <t>图像分割</t>
   </si>
 </sst>
 </file>
@@ -2386,7 +2395,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2402,12 +2411,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,7 +2791,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2812,16 +2815,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2830,89 +2833,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2934,26 +2937,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2988,10 +2982,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3000,7 +2994,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3027,13 +3021,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3362,7 +3356,7 @@
   <dimension ref="A5:E43"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3375,68 +3369,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3444,21 +3438,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3469,7 +3463,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3478,7 +3472,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3493,7 +3487,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3506,7 +3500,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3519,7 +3513,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3530,7 +3524,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3541,7 +3535,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3552,7 +3546,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3565,7 +3559,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3576,7 +3570,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3587,7 +3581,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3600,33 +3594,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="12"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3639,7 +3633,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3661,25 +3655,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="33" t="s">
+    <row r="40" s="26" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="33"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3694,7 +3688,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3707,7 +3701,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3740,7 +3734,7 @@
   <dimension ref="A5:E19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3753,176 +3747,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="38" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="33" t="s">
+    <row r="13" s="26" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" s="26" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="42" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" s="26" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" s="26" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="40"/>
+      <c r="B17" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" s="26" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="41"/>
+      <c r="B18" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="E18" s="33"/>
+    </row>
+    <row r="19" s="26" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3947,7 +3941,7 @@
   <dimension ref="A5:E28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3960,73 +3954,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4041,7 +4035,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4052,7 +4046,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="36"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4063,7 +4057,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4109,7 +4103,7 @@
   <dimension ref="A5:E8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -4122,41 +4116,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="31" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="35" t="s">
+    <row r="7" s="26" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4186,7 +4180,7 @@
   <dimension ref="B9:I31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4231,7 +4225,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4297,14 +4291,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4397,7 +4391,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4461,7 +4455,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="24" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4520,7 +4514,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4540,7 +4534,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4558,7 +4552,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4591,7 +4585,7 @@
   <dimension ref="D10:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4602,7 +4596,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4662,7 +4656,7 @@
   <dimension ref="B8:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4675,49 +4669,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4726,13 +4720,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="17" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4743,13 +4737,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4773,7 +4767,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4788,7 +4782,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4822,7 +4816,7 @@
   <dimension ref="C5:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4834,180 +4828,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="13"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="13"/>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="11"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="11"/>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="11"/>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="11"/>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="11"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="14" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="11"/>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5031,10 +5025,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N32"/>
+  <dimension ref="B12:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5381,171 +5375,198 @@
       </c>
     </row>
     <row r="24" ht="44" customHeight="1" spans="2:14">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="34" ht="21" customHeight="1" spans="2:14">
+      <c r="B34" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="L34" s="9"/>
+      <c r="M34" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="362">
   <si>
     <r>
       <rPr>
@@ -2170,6 +2170,21 @@
   </si>
   <si>
     <t>自动插秧机的株距和行距</t>
+  </si>
+  <si>
+    <t>人脸识别</t>
+  </si>
+  <si>
+    <t>FaceNet</t>
+  </si>
+  <si>
+    <t>sklearn &amp; tensorflow</t>
+  </si>
+  <si>
+    <t>目标检测-人脸识别</t>
+  </si>
+  <si>
+    <t>只能用于验证理论，不能用于实际项目，因为精度不是很高</t>
   </si>
   <si>
     <t>城市道路分割</t>
@@ -2395,7 +2410,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2411,6 +2426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2791,7 +2812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2815,16 +2836,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2833,89 +2854,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2937,19 +2958,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2982,10 +3015,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2994,7 +3027,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3021,13 +3054,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3369,68 +3402,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3438,21 +3471,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3463,7 +3496,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3472,7 +3505,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3487,7 +3520,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3500,7 +3533,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3513,7 +3546,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3524,7 +3557,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3535,7 +3568,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3546,7 +3579,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="34" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3559,7 +3592,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3570,7 +3603,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3581,7 +3614,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3594,33 +3627,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3633,7 +3666,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3655,25 +3688,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="26" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="30" t="s">
+    <row r="40" s="30" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="30"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3688,7 +3721,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3701,7 +3734,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="30"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3747,176 +3780,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="33" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="38" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" s="26" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="30" t="s">
+    <row r="13" s="30" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" s="26" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="39" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" s="30" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="26" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="40"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" s="30" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="44"/>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="26" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="41"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" s="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="45"/>
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" s="26" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" s="30" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3954,73 +3987,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="33"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4035,7 +4068,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4046,7 +4079,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4057,7 +4090,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4116,41 +4149,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="35" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="26" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="32" t="s">
+    <row r="7" s="30" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4225,7 +4258,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4291,14 +4324,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4391,7 +4424,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="28" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4455,7 +4488,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="28" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4514,7 +4547,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="29" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4534,7 +4567,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="25"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4552,7 +4585,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="25"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4596,7 +4629,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="24" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4669,49 +4702,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4720,13 +4753,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4737,13 +4770,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4767,7 +4800,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="23" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4782,7 +4815,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="23" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4828,180 +4861,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="7"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="7"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="8"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="8"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="8"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="8"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="8"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5025,10 +5058,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N34"/>
+  <dimension ref="B12:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5036,7 +5069,7 @@
     <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
     <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
     <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
-    <col min="5" max="5" width="18.0176991150442" customWidth="1"/>
+    <col min="5" max="5" width="22.858407079646" customWidth="1"/>
     <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
     <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
     <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
@@ -5231,41 +5264,41 @@
       <c r="N17" s="2"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="N18" s="2"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
       <c r="B19" s="5" t="s">
@@ -5375,33 +5408,33 @@
       </c>
     </row>
     <row r="24" ht="44" customHeight="1" spans="2:14">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="7" t="s">
@@ -5541,18 +5574,18 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="34" ht="21" customHeight="1" spans="2:14">
+    <row r="34" ht="40.5" spans="2:14">
       <c r="B34" s="9" t="s">
         <v>354</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>344</v>
+      <c r="D34" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -5560,13 +5593,42 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L34" s="9"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" ht="21" customHeight="1" spans="2:14">
+      <c r="B36" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="N34" s="9"/>
+      <c r="N36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -2410,7 +2410,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,12 +2426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,7 +2806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2836,16 +2830,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2854,89 +2848,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2964,15 +2958,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3015,10 +3000,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3027,7 +3012,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3054,13 +3039,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3402,68 +3387,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3471,21 +3456,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3496,7 +3481,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3505,7 +3490,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3520,7 +3505,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3533,7 +3518,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3546,7 +3531,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3557,7 +3542,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="34"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3568,7 +3553,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="34"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3579,7 +3564,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="31" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3592,7 +3577,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3603,7 +3588,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="34"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +3599,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="34"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3627,33 +3612,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="34"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="34"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3666,7 +3651,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3688,25 +3673,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="30" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="34" t="s">
+    <row r="40" s="27" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="34"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3721,7 +3706,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="34"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3734,7 +3719,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="34"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3780,176 +3765,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="30" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" s="30" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="34" t="s">
+    <row r="13" s="27" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" s="27" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" s="30" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="43" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" s="27" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="30" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="44"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="27" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="41"/>
+      <c r="B17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="27" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="42"/>
+      <c r="B18" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" s="30" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" s="27" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3987,73 +3972,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4068,7 +4053,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4079,7 +4064,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4090,7 +4075,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4149,41 +4134,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="30" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="36" t="s">
+    <row r="7" s="27" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4258,7 +4243,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4324,14 +4309,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4424,7 +4409,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="25" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4488,7 +4473,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="25" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4547,7 +4532,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="26" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4567,7 +4552,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="29"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4585,7 +4570,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="29"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4629,7 +4614,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4702,49 +4687,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4753,13 +4738,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4770,13 +4755,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4800,7 +4785,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="20" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4815,7 +4800,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="20" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4861,180 +4846,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="9" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="15"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5575,60 +5560,60 @@
       <c r="N32" s="8"/>
     </row>
     <row r="34" ht="40.5" spans="2:14">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9" t="s">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="2:14">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="N36" s="10"/>
+      <c r="N36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="369">
   <si>
     <r>
       <rPr>
@@ -2194,6 +2194,27 @@
   </si>
   <si>
     <t>图像分割</t>
+  </si>
+  <si>
+    <t>图片文字识别</t>
+  </si>
+  <si>
+    <t>CRN+CTC</t>
+  </si>
+  <si>
+    <t>ocr-文字识别</t>
+  </si>
+  <si>
+    <t>自训练</t>
+  </si>
+  <si>
+    <t>DB_CRN+CTC</t>
+  </si>
+  <si>
+    <t>ocr-文字检测+文字识别</t>
+  </si>
+  <si>
+    <t>第三方库</t>
   </si>
 </sst>
 </file>
@@ -2410,7 +2431,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2420,6 +2441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2806,7 +2833,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2830,16 +2857,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2848,89 +2875,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2958,6 +2985,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3000,10 +3039,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3012,7 +3051,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3039,13 +3078,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3387,68 +3426,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3456,21 +3495,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3481,7 +3520,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="31"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3490,7 +3529,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3505,7 +3544,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="31"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3518,7 +3557,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3531,7 +3570,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="31"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3542,7 +3581,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="31"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3553,7 +3592,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3564,7 +3603,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3577,7 +3616,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="31"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3588,7 +3627,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="31"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3599,7 +3638,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="31"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3612,33 +3651,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3651,7 +3690,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3673,25 +3712,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="27" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="31" t="s">
+    <row r="40" s="31" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="31"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3706,7 +3745,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="31"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3719,7 +3758,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="31"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3765,176 +3804,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="39" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-    </row>
-    <row r="14" s="27" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="31" t="s">
+    <row r="13" s="31" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" s="31" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" s="27" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" s="31" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="27" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="41"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" s="31" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="45"/>
+      <c r="B17" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="27" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="42"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" s="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" s="27" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" s="31" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3972,73 +4011,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" s="27" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4053,7 +4092,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="34"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4064,7 +4103,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="34"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4075,7 +4114,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4134,41 +4173,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="36" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="27" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="33" t="s">
+    <row r="7" s="31" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4243,7 +4282,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="26" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4309,14 +4348,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4409,7 +4448,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="29" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4473,7 +4512,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="29" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4532,7 +4571,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="30" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4552,7 +4591,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="26"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4570,7 +4609,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="26"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4614,7 +4653,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="25" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4687,49 +4726,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4738,13 +4777,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="21" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="22" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4755,13 +4794,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4785,7 +4824,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="24" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4800,7 +4839,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="24" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4846,180 +4885,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="11"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="11"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="9"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="9"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="9"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="19" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="9"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
   </sheetData>
@@ -5043,10 +5082,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N36"/>
+  <dimension ref="B12:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5060,7 +5099,7 @@
     <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
     <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
     <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
-    <col min="11" max="11" width="17.353982300885" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
     <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
     <col min="14" max="14" width="20.929203539823" customWidth="1"/>
@@ -5589,31 +5628,89 @@
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="2:14">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="N36" s="4"/>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="L40" s="12"/>
+      <c r="M40" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>368</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
+    <workbookView windowWidth="16972" windowHeight="7350" tabRatio="957" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="371">
   <si>
     <r>
       <rPr>
@@ -1954,6 +1954,12 @@
   </si>
   <si>
     <t>病变识别</t>
+  </si>
+  <si>
+    <t>其它参考</t>
+  </si>
+  <si>
+    <t>人工智能产业应用项目库</t>
   </si>
   <si>
     <t>难度</t>
@@ -2431,7 +2437,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2441,12 +2447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2833,7 +2833,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2857,16 +2857,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2875,89 +2875,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2988,15 +2988,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3039,10 +3030,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3051,7 +3042,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3078,13 +3069,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3426,68 +3417,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3495,21 +3486,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3520,7 +3511,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3529,7 +3520,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3544,7 +3535,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3557,7 +3548,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3570,7 +3561,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3581,7 +3572,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3592,7 +3583,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="35"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3603,7 +3594,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3616,7 +3607,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="35"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3627,7 +3618,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3638,7 +3629,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="35"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3651,33 +3642,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="35"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="35"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3690,7 +3681,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3712,25 +3703,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="35" t="s">
+    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="35"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3745,7 +3736,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="35"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3758,7 +3749,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="35"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3804,176 +3795,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="43" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="31" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" s="31" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="35" t="s">
+    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" s="31" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="44" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="31" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="20" t="s">
+    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="42"/>
+      <c r="B17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="20" t="s">
+    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="43"/>
+      <c r="B18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" s="31" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4011,73 +4002,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4092,7 +4083,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4103,7 +4094,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4114,7 +4105,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4173,41 +4164,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="31" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="37" t="s">
+    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="18" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4282,7 +4273,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4348,14 +4339,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4448,7 +4439,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="26" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4512,7 +4503,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="26" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4571,7 +4562,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4591,7 +4582,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="30"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4609,7 +4600,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="30"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4653,7 +4644,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="22" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4726,49 +4717,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4777,13 +4768,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="18" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4794,13 +4785,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4824,7 +4815,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="21" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4839,7 +4830,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="21" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4870,10 +4861,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:I26"/>
+  <dimension ref="C5:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4885,182 +4876,190 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="15"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="15"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="11" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="11" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="16" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="13"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="19"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
+    <row r="29" spans="6:7">
+      <c r="F29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G29" t="s">
+        <v>293</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C5:F5"/>
@@ -5084,7 +5083,7 @@
   <sheetPr/>
   <dimension ref="B12:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -5113,60 +5112,60 @@
         <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -5174,107 +5173,107 @@
         <v>24</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
       <c r="B14" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
       <c r="B15" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
       <c r="B17" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -5283,7 +5282,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N17" s="2"/>
     </row>
@@ -5292,157 +5291,157 @@
         <v>168</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N18" s="4"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
       <c r="B19" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="2:14">
       <c r="B20" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" ht="210" customHeight="1" spans="2:14">
       <c r="B21" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" ht="44" customHeight="1" spans="2:14">
       <c r="B24" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -5453,19 +5452,19 @@
         <v>280</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14">
       <c r="B25" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -5482,7 +5481,7 @@
     <row r="26" spans="2:14">
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -5499,7 +5498,7 @@
     <row r="27" spans="2:14">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -5516,7 +5515,7 @@
     <row r="28" spans="2:14">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -5533,7 +5532,7 @@
     <row r="29" spans="2:14">
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -5550,7 +5549,7 @@
     <row r="30" spans="2:14">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -5567,7 +5566,7 @@
     <row r="31" spans="2:14">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -5584,7 +5583,7 @@
     <row r="32" spans="2:14">
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -5600,16 +5599,16 @@
     </row>
     <row r="34" ht="40.5" spans="2:14">
       <c r="B34" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -5617,99 +5616,99 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" ht="21" customHeight="1" spans="2:14">
       <c r="B36" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+        <v>327</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="L36" s="10"/>
+        <v>363</v>
+      </c>
+      <c r="L36" s="9"/>
       <c r="M36" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N36" s="10"/>
+        <v>336</v>
+      </c>
+      <c r="N36" s="9"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>363</v>
+      <c r="B39" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>365</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>366</v>
+      <c r="C40" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="L40" s="12"/>
+        <v>346</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="L40" s="9"/>
       <c r="M40" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>368</v>
+        <v>336</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16972" windowHeight="7350" tabRatio="957" activeTab="7"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="392">
   <si>
     <r>
       <rPr>
@@ -2221,6 +2221,70 @@
   </si>
   <si>
     <t>第三方库</t>
+  </si>
+  <si>
+    <t>分词</t>
+  </si>
+  <si>
+    <t>jieba</t>
+  </si>
+  <si>
+    <t>npl-分词</t>
+  </si>
+  <si>
+    <t>词频统计</t>
+  </si>
+  <si>
+    <t>npl-词频统计</t>
+  </si>
+  <si>
+    <t>词性标注</t>
+  </si>
+  <si>
+    <t>npl-词性标注</t>
+  </si>
+  <si>
+    <t>关键词提取</t>
+  </si>
+  <si>
+    <t>TF-IDF</t>
+  </si>
+  <si>
+    <t>npl-关键词提取</t>
+  </si>
+  <si>
+    <t>TextRank</t>
+  </si>
+  <si>
+    <t>垃圾邮件识别-邮件内容</t>
+  </si>
+  <si>
+    <t>贝叶斯模型/支持向量机</t>
+  </si>
+  <si>
+    <t>jieba/sklearn</t>
+  </si>
+  <si>
+    <t>npl-文本分类</t>
+  </si>
+  <si>
+    <t>新闻分类-新闻标题</t>
+  </si>
+  <si>
+    <t>Text CNN</t>
+  </si>
+  <si>
+    <t>短文本分类等问题
+多次训练提高精度</t>
+  </si>
+  <si>
+    <t>词向量表示任务</t>
+  </si>
+  <si>
+    <t>gensim</t>
+  </si>
+  <si>
+    <t>np-词向量表示</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2501,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2453,6 +2517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2833,7 +2903,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2857,16 +2927,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2875,89 +2945,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2988,6 +3058,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3030,10 +3115,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3042,7 +3127,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3069,13 +3154,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3417,68 +3502,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="40" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3486,21 +3571,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3511,7 +3596,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="32"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3520,7 +3605,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3535,7 +3620,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="32"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3548,7 +3633,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3561,7 +3646,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3572,7 +3657,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="32"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3583,7 +3668,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="32"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3594,7 +3679,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="37" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3607,7 +3692,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="32"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3618,7 +3703,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3629,7 +3714,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3642,33 +3727,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="23" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3681,7 +3766,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3703,25 +3788,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="32" t="s">
+    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="32"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3736,7 +3821,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="32"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3749,7 +3834,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3795,176 +3880,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="32" t="s">
+    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="17" t="s">
+    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="47"/>
+      <c r="B17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="17" t="s">
+    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="48"/>
+      <c r="B18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4002,73 +4087,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4083,7 +4168,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4094,7 +4179,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="35"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4105,7 +4190,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="23" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4164,41 +4249,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="34" t="s">
+    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4273,7 +4358,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4339,14 +4424,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4439,7 +4524,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="31" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4503,7 +4588,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="31" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4562,7 +4647,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="32" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4582,7 +4667,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="27"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4600,7 +4685,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="27"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4644,7 +4729,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4717,49 +4802,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4768,13 +4853,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="23" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="24" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4785,13 +4870,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="23" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4815,7 +4900,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="26" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4830,7 +4915,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="26" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4863,8 +4948,8 @@
   <sheetPr/>
   <dimension ref="C5:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4876,180 +4961,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="12"/>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="16" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="12"/>
-      <c r="G12" s="11" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="10"/>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="10"/>
-      <c r="G18" s="11" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="16" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="10"/>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="15" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="10"/>
-      <c r="G22" s="11" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="21" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="10"/>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5081,15 +5166,15 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N40"/>
+  <dimension ref="B12:N49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.2743362831858" customWidth="1"/>
+    <col min="2" max="2" width="22.3893805309735" customWidth="1"/>
     <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
     <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
     <col min="5" max="5" width="22.858407079646" customWidth="1"/>
@@ -5711,6 +5796,216 @@
         <v>370</v>
       </c>
     </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" ht="27" spans="2:14">
+      <c r="B48" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" ht="13" customHeight="1" spans="2:14">
+      <c r="B49" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" s="12"/>
+      <c r="M49" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C25:N25"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="393">
   <si>
     <r>
       <rPr>
@@ -2276,6 +2276,9 @@
   <si>
     <t>短文本分类等问题
 多次训练提高精度</t>
+  </si>
+  <si>
+    <t>文本情感分析</t>
   </si>
   <si>
     <t>词向量表示任务</t>
@@ -2501,7 +2504,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2517,12 +2520,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,7 +2900,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2927,16 +2924,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2945,89 +2942,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3061,24 +3058,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3115,19 +3103,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3154,13 +3139,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3502,68 +3487,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3571,21 +3556,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3596,7 +3581,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3605,7 +3590,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3620,7 +3605,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="37"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
@@ -3633,7 +3618,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3646,7 +3631,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="37"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -3657,7 +3642,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="37"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
@@ -3668,7 +3653,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="37"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
@@ -3679,7 +3664,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3692,7 +3677,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3703,7 +3688,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="37"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="2" t="s">
         <v>44</v>
       </c>
@@ -3714,7 +3699,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="37"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -3727,33 +3712,33 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3766,7 +3751,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3788,25 +3773,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="37" t="s">
+    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="37"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
@@ -3821,7 +3806,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="37"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="2" t="s">
         <v>72</v>
       </c>
@@ -3834,7 +3819,7 @@
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="37"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -3880,176 +3865,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="37" t="s">
+    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="46" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="22" t="s">
+    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="43"/>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="22" t="s">
+    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="44"/>
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4087,73 +4072,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4168,7 +4153,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
         <v>125</v>
       </c>
@@ -4179,7 +4164,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
         <v>127</v>
       </c>
@@ -4190,7 +4175,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4249,41 +4234,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="39" t="s">
+    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4358,7 +4343,7 @@
       <c r="C10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -4424,14 +4409,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="2" t="s">
@@ -4524,7 +4509,7 @@
       <c r="C18" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2"/>
@@ -4588,7 +4573,7 @@
       <c r="C25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="2"/>
@@ -4647,7 +4632,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -4667,7 +4652,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="32"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="2" t="s">
         <v>208</v>
       </c>
@@ -4685,7 +4670,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="32"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="2" t="s">
         <v>211</v>
       </c>
@@ -4729,7 +4714,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="2"/>
@@ -4802,49 +4787,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="2" t="s">
@@ -4853,13 +4838,13 @@
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4870,13 +4855,13 @@
       <c r="C12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -4900,7 +4885,7 @@
       <c r="E14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="23" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4915,7 +4900,7 @@
       <c r="E15" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4961,180 +4946,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="15"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="15"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="15"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5166,10 +5151,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N49"/>
+  <dimension ref="B12:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5953,56 +5938,73 @@
       <c r="N47" s="9"/>
     </row>
     <row r="48" ht="27" spans="2:14">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="13" t="s">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L48" s="11"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="N48" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="49" ht="13" customHeight="1" spans="2:14">
-      <c r="B49" s="12" t="s">
+    <row r="49" spans="2:14">
+      <c r="B49" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" ht="13" customHeight="1" spans="2:14">
+      <c r="B50" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12" t="s">
+      <c r="E50" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="14" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" s="2"/>
+      <c r="M50" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N50" s="2" t="s">
         <v>370</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -3024,10 +3024,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3039,12 +3042,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3487,283 +3484,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="32"/>
+      <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3773,63 +3770,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="33" t="s">
+    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="32"/>
+      <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3865,176 +3862,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="33" t="s">
+    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="42" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="42"/>
+      <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="43"/>
+      <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4072,118 +4069,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -4234,53 +4231,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4311,379 +4308,379 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:9">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:9">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:9">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:9">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:9">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:9">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:9">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:9">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:9">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:9">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:9">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:9">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="2" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="3"/>
+      <c r="I29" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="28"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="28"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="3"/>
+      <c r="I31" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4714,51 +4711,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4787,135 +4784,135 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4946,180 +4943,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="13"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="13"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="13"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="13"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="13"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5151,10 +5148,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12:N50"/>
+  <dimension ref="A12:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5175,235 +5172,235 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:14">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" ht="51" customHeight="1"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="2"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
       <c r="B19" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>327</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -5417,511 +5414,410 @@
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="4" t="s">
         <v>335</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>336</v>
       </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="2:14">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" ht="210" customHeight="1" spans="2:14">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="24" ht="44" customHeight="1" spans="2:14">
-      <c r="B24" s="4" t="s">
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" ht="44" customHeight="1" spans="2:14">
+      <c r="B25" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L25" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M25" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="7" t="s">
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="34" ht="40.5" spans="2:14">
-      <c r="B34" s="2" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="38" ht="40.5" spans="2:14">
+      <c r="B38" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2" t="s">
+      <c r="L38" s="3"/>
+      <c r="M38" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="36" ht="21" customHeight="1" spans="2:14">
-      <c r="B36" s="9" t="s">
+    <row r="40" ht="21" customHeight="1" spans="2:14">
+      <c r="B40" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9" t="s">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N36" s="9"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="9" t="s">
+      <c r="N40" s="8"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9" t="s">
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="9" t="s">
+    <row r="44" spans="2:14">
+      <c r="B44" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="10" t="s">
+    <row r="46" spans="2:14">
+      <c r="B46" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10" t="s">
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N46" s="9" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="N46" s="10"/>
     </row>
     <row r="47" spans="2:14">
       <c r="B47" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D47" s="9"/>
+        <v>374</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>326</v>
+      </c>
       <c r="E47" s="9" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -5929,88 +5825,192 @@
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N47" s="9"/>
-    </row>
-    <row r="48" ht="27" spans="2:14">
-      <c r="B48" s="4" t="s">
+      <c r="N47" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" ht="27" spans="2:14">
+      <c r="B52" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3" t="s">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="9" t="s">
+      <c r="L52" s="5"/>
+      <c r="M52" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N52" s="4" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="11" t="s">
+    <row r="53" spans="2:14">
+      <c r="B53" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" ht="13" customHeight="1" spans="2:14">
-      <c r="B50" s="2" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" ht="13" customHeight="1" spans="2:14">
+      <c r="B54" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="12" t="s">
+      <c r="L54" s="3"/>
+      <c r="M54" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N54" s="3" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C25:N25"/>
+  <mergeCells count="11">
+    <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="C26:N26"/>
     <mergeCell ref="C27:N27"/>
     <mergeCell ref="C28:N28"/>
@@ -6018,7 +6018,9 @@
     <mergeCell ref="C30:N30"/>
     <mergeCell ref="C31:N31"/>
     <mergeCell ref="C32:N32"/>
-    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="C33:N33"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="A22:XFD24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -3024,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3044,7 +3044,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3484,68 +3487,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3553,21 +3556,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3578,7 +3581,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3590,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3602,7 +3605,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3618,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3628,7 +3631,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3650,7 +3653,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3661,7 +3664,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3674,7 +3677,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -3685,7 +3688,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3696,7 +3699,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
@@ -3709,33 +3712,33 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3748,7 +3751,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3770,25 +3773,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="32" t="s">
+    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
@@ -3803,7 +3806,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -3816,7 +3819,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
@@ -3862,176 +3865,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="32" t="s">
+    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="43"/>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="44"/>
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4069,73 +4072,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4150,7 +4153,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
@@ -4161,7 +4164,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
@@ -4172,7 +4175,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4231,41 +4234,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="34" t="s">
+    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4340,7 +4343,7 @@
       <c r="C10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -4406,14 +4409,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="3" t="s">
@@ -4506,7 +4509,7 @@
       <c r="C18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="3"/>
@@ -4570,7 +4573,7 @@
       <c r="C25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="3"/>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4649,7 +4652,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="27"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>208</v>
       </c>
@@ -4667,7 +4670,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="27"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>211</v>
       </c>
@@ -4711,7 +4714,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="3"/>
@@ -4784,49 +4787,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="3" t="s">
@@ -4835,13 +4838,13 @@
       <c r="C11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4852,13 +4855,13 @@
       <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="3" t="s">
@@ -4882,7 +4885,7 @@
       <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4897,7 +4900,7 @@
       <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4943,180 +4946,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="13"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="13"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5150,8 +5153,8 @@
   <sheetPr/>
   <dimension ref="A12:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5531,11 +5534,9 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="7" t="s">
         <v>348</v>
       </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -5549,7 +5550,9 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>349</v>
       </c>
@@ -5566,7 +5569,7 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="7" t="s">
         <v>350</v>
       </c>
@@ -5583,7 +5586,7 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="7" t="s">
         <v>351</v>
       </c>
@@ -5600,7 +5603,7 @@
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="7" t="s">
         <v>352</v>
       </c>
@@ -5617,7 +5620,7 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="7" t="s">
         <v>353</v>
       </c>
@@ -5634,7 +5637,7 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="7" t="s">
         <v>354</v>
       </c>
@@ -5651,7 +5654,7 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="6"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="7" t="s">
         <v>355</v>
       </c>
@@ -5697,245 +5700,245 @@
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:14">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8" t="s">
+      <c r="L40" s="9"/>
+      <c r="M40" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="N40" s="8"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8" t="s">
+      <c r="L43" s="9"/>
+      <c r="M43" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="N43" s="8" t="s">
+      <c r="N43" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8" t="s">
+      <c r="L44" s="9"/>
+      <c r="M44" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="N44" s="8" t="s">
+      <c r="N44" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9" t="s">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9" t="s">
+      <c r="L46" s="10"/>
+      <c r="M46" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9" t="s">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9" t="s">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N47" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9" t="s">
+      <c r="L49" s="10"/>
+      <c r="M49" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="9"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9" t="s">
+      <c r="L50" s="10"/>
+      <c r="M50" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="9"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8" t="s">
+      <c r="L51" s="9"/>
+      <c r="M51" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N51" s="8"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52" ht="27" spans="2:14">
       <c r="B52" s="5" t="s">
@@ -5957,7 +5960,7 @@
         <v>385</v>
       </c>
       <c r="L52" s="5"/>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="9" t="s">
         <v>336</v>
       </c>
       <c r="N52" s="4" t="s">
@@ -5965,21 +5968,21 @@
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
     </row>
     <row r="54" ht="13" customHeight="1" spans="2:14">
       <c r="B54" s="3" t="s">
@@ -6001,7 +6004,7 @@
         <v>392</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>336</v>
       </c>
       <c r="N54" s="3" t="s">
@@ -6019,7 +6022,7 @@
     <mergeCell ref="C31:N31"/>
     <mergeCell ref="C32:N32"/>
     <mergeCell ref="C33:N33"/>
-    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B27:B33"/>
     <mergeCell ref="A22:XFD24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -3024,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3045,9 +3045,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3487,68 +3484,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3556,21 +3553,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3581,7 +3578,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3590,7 +3587,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3605,7 +3602,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3618,7 +3615,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3631,7 +3628,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3642,7 +3639,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3653,7 +3650,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3664,7 +3661,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3677,7 +3674,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -3688,7 +3685,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3699,7 +3696,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
@@ -3712,33 +3709,33 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="32"/>
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="10"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="10"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3751,7 +3748,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3773,25 +3770,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="33" t="s">
+    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="33"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
@@ -3806,7 +3803,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -3819,7 +3816,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
@@ -3865,176 +3862,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="40" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="33" t="s">
+    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="42" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+    </row>
+    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="42"/>
+      <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="43"/>
+      <c r="B18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4072,73 +4069,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4153,7 +4150,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
@@ -4164,7 +4161,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
@@ -4175,7 +4172,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4234,41 +4231,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="33" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="35" t="s">
+    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4343,7 +4340,7 @@
       <c r="C10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -4409,14 +4406,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="3" t="s">
@@ -4509,7 +4506,7 @@
       <c r="C18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="3"/>
@@ -4573,7 +4570,7 @@
       <c r="C25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="3"/>
@@ -4632,7 +4629,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4652,7 +4649,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="28"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="3" t="s">
         <v>208</v>
       </c>
@@ -4670,7 +4667,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="28"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="3" t="s">
         <v>211</v>
       </c>
@@ -4714,7 +4711,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="3"/>
@@ -4787,49 +4784,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="3" t="s">
@@ -4838,13 +4835,13 @@
       <c r="C11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4855,13 +4852,13 @@
       <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="3" t="s">
@@ -4885,7 +4882,7 @@
       <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4900,7 +4897,7 @@
       <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4946,180 +4943,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="13"/>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="13"/>
-      <c r="G18" s="10" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="13"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="13"/>
-      <c r="G22" s="10" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="13"/>
-      <c r="G24" s="10" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5153,7 +5150,7 @@
   <sheetPr/>
   <dimension ref="A12:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:N30"/>
     </sheetView>
   </sheetViews>
@@ -5550,7 +5547,7 @@
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>327</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5569,7 +5566,7 @@
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
         <v>350</v>
       </c>
@@ -5586,7 +5583,7 @@
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
         <v>351</v>
       </c>
@@ -5603,7 +5600,7 @@
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
         <v>352</v>
       </c>
@@ -5620,7 +5617,7 @@
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
         <v>353</v>
       </c>
@@ -5637,7 +5634,7 @@
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
         <v>354</v>
       </c>
@@ -5654,7 +5651,7 @@
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
         <v>355</v>
       </c>
@@ -5700,245 +5697,245 @@
       </c>
     </row>
     <row r="40" ht="21" customHeight="1" spans="2:14">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9" t="s">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N40" s="9"/>
+      <c r="N40" s="8"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9" t="s">
+      <c r="L43" s="8"/>
+      <c r="M43" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10" t="s">
+      <c r="L46" s="9"/>
+      <c r="M46" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N46" s="10" t="s">
+      <c r="N46" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10" t="s">
+      <c r="L47" s="9"/>
+      <c r="M47" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N47" s="10" t="s">
+      <c r="N47" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10" t="s">
+      <c r="L48" s="9"/>
+      <c r="M48" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10" t="s">
+      <c r="L49" s="9"/>
+      <c r="M49" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10" t="s">
+      <c r="L50" s="9"/>
+      <c r="M50" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="10"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9" t="s">
+      <c r="L51" s="8"/>
+      <c r="M51" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="N51" s="9"/>
+      <c r="N51" s="8"/>
     </row>
     <row r="52" ht="27" spans="2:14">
       <c r="B52" s="5" t="s">
@@ -5960,7 +5957,7 @@
         <v>385</v>
       </c>
       <c r="L52" s="5"/>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="8" t="s">
         <v>336</v>
       </c>
       <c r="N52" s="4" t="s">
@@ -5968,21 +5965,21 @@
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
     </row>
     <row r="54" ht="13" customHeight="1" spans="2:14">
       <c r="B54" s="3" t="s">
@@ -6004,7 +6001,7 @@
         <v>392</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="12" t="s">
+      <c r="M54" s="11" t="s">
         <v>336</v>
       </c>
       <c r="N54" s="3" t="s">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -5151,7 +5151,7 @@
   <dimension ref="A12:XFD54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:N30"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -2504,7 +2504,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2520,6 +2520,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2900,7 +2912,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2924,16 +2936,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2942,89 +2954,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3052,7 +3064,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -3064,6 +3082,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3100,16 +3121,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3136,13 +3157,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3484,68 +3505,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3553,21 +3574,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3578,7 +3599,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3587,7 +3608,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3602,7 +3623,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3615,7 +3636,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="35" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3628,7 +3649,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3639,7 +3660,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3650,7 +3671,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="32"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3661,7 +3682,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3674,7 +3695,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="32"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -3685,7 +3706,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="32"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3696,7 +3717,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="32"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
@@ -3709,33 +3730,33 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="32"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="32"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3748,7 +3769,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3770,25 +3791,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="28" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="32" t="s">
+    <row r="40" s="31" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="32"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
@@ -3803,7 +3824,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="32"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -3816,7 +3837,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="32"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
@@ -3862,176 +3883,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="40" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="32" t="s">
+    <row r="13" s="31" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" s="31" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" s="28" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" s="31" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="28" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" s="31" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="45"/>
+      <c r="B17" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="28" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="43"/>
-      <c r="B18" s="18" t="s">
+    <row r="18" s="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" s="28" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" s="31" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4069,73 +4090,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="32"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="23" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" s="28" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4150,7 +4171,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
@@ -4161,7 +4182,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
@@ -4172,7 +4193,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4231,41 +4252,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="36" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" s="28" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="34" t="s">
+    <row r="7" s="31" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4340,7 +4361,7 @@
       <c r="C10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -4406,14 +4427,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="3" t="s">
@@ -4506,7 +4527,7 @@
       <c r="C18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="3"/>
@@ -4570,7 +4591,7 @@
       <c r="C25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="3"/>
@@ -4629,7 +4650,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="30" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4649,7 +4670,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>208</v>
       </c>
@@ -4667,7 +4688,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>211</v>
       </c>
@@ -4711,7 +4732,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="3"/>
@@ -4784,49 +4805,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="21" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="3" t="s">
@@ -4835,13 +4856,13 @@
       <c r="C11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="22" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="23" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4852,13 +4873,13 @@
       <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="22" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="3" t="s">
@@ -4882,7 +4903,7 @@
       <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="25" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4897,7 +4918,7 @@
       <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="25" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4943,180 +4964,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="15" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="13"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="15" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="13"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="15" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="15" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="15" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="15" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="15" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="14" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="9" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="20" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5150,8 +5171,8 @@
   <sheetPr/>
   <dimension ref="A12:XFD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5836,106 +5857,106 @@
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9" t="s">
+      <c r="L49" s="10"/>
+      <c r="M49" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="9"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9" t="s">
+      <c r="L50" s="10"/>
+      <c r="M50" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="9"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8" t="s">
+      <c r="L51" s="11"/>
+      <c r="M51" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N51" s="8"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52" ht="27" spans="2:14">
       <c r="B52" s="5" t="s">
@@ -5965,21 +5986,21 @@
       </c>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
     </row>
     <row r="54" ht="13" customHeight="1" spans="2:14">
       <c r="B54" s="3" t="s">
@@ -6001,7 +6022,7 @@
         <v>392</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="13" t="s">
         <v>336</v>
       </c>
       <c r="N54" s="3" t="s">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="392">
   <si>
     <r>
       <rPr>
@@ -2276,9 +2276,6 @@
   <si>
     <t>短文本分类等问题
 多次训练提高精度</t>
-  </si>
-  <si>
-    <t>文本情感分析</t>
   </si>
   <si>
     <t>词向量表示任务</t>
@@ -2504,7 +2501,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2520,12 +2517,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2912,7 +2903,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2936,16 +2927,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2954,89 +2945,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3067,13 +3058,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3121,16 +3106,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3157,13 +3142,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3505,68 +3490,68 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3574,21 +3559,21 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3599,7 +3584,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="35"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3608,7 +3593,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3623,7 +3608,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="35"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
@@ -3636,7 +3621,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3649,7 +3634,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
@@ -3660,7 +3645,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3671,7 +3656,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="35"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
@@ -3682,7 +3667,7 @@
       <c r="E23" s="3"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3695,7 +3680,7 @@
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="35"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="3" t="s">
         <v>42</v>
       </c>
@@ -3706,7 +3691,7 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3717,7 +3702,7 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="35"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="3" t="s">
         <v>46</v>
       </c>
@@ -3730,33 +3715,33 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="35"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="35"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3769,7 +3754,7 @@
       <c r="E33" s="3"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3791,25 +3776,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="31" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="35" t="s">
+    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="35"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="3" t="s">
         <v>69</v>
       </c>
@@ -3824,7 +3809,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="35"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="3" t="s">
         <v>72</v>
       </c>
@@ -3837,7 +3822,7 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="35"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="3" t="s">
         <v>75</v>
       </c>
@@ -3883,176 +3868,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="43" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="41" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="31" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" s="31" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="35" t="s">
+    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-    </row>
-    <row r="15" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-    </row>
-    <row r="16" s="31" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="44" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="31" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="21" t="s">
+    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="43"/>
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="44"/>
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" s="31" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4090,73 +4075,73 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" s="31" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4171,7 +4156,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3" t="s">
         <v>125</v>
       </c>
@@ -4182,7 +4167,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
@@ -4193,7 +4178,7 @@
       <c r="E17" s="3"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4252,41 +4237,41 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="34" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" s="31" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="37" t="s">
+    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4361,7 +4346,7 @@
       <c r="C10" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -4427,14 +4412,14 @@
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
       <c r="B14" s="3" t="s">
@@ -4527,7 +4512,7 @@
       <c r="C18" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="3"/>
@@ -4591,7 +4576,7 @@
       <c r="C25" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="3"/>
@@ -4650,7 +4635,7 @@
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="28" t="s">
         <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -4670,7 +4655,7 @@
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="30"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>208</v>
       </c>
@@ -4688,7 +4673,7 @@
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="30"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>211</v>
       </c>
@@ -4732,7 +4717,7 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>213</v>
       </c>
       <c r="E10" s="3"/>
@@ -4805,49 +4790,49 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
       <c r="B11" s="3" t="s">
@@ -4856,13 +4841,13 @@
       <c r="C11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4873,13 +4858,13 @@
       <c r="C12" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>237</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
       <c r="B13" s="3" t="s">
@@ -4903,7 +4888,7 @@
       <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4918,7 +4903,7 @@
       <c r="E15" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4964,180 +4949,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="16"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="16"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="14"/>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="14"/>
-      <c r="G18" s="15" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="14"/>
-      <c r="G20" s="15" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="14"/>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="14"/>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5169,10 +5154,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:XFD54"/>
+  <dimension ref="A12:XFD53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5857,106 +5842,106 @@
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10" t="s">
+      <c r="L48" s="9"/>
+      <c r="M48" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N48" s="10" t="s">
+      <c r="N48" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10" t="s">
+      <c r="L49" s="9"/>
+      <c r="M49" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N49" s="10"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10" t="s">
+      <c r="L50" s="9"/>
+      <c r="M50" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N50" s="10"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11" t="s">
+      <c r="L51" s="10"/>
+      <c r="M51" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N51" s="11"/>
+      <c r="N51" s="10"/>
     </row>
     <row r="52" ht="27" spans="2:14">
       <c r="B52" s="5" t="s">
@@ -5985,47 +5970,30 @@
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="12" t="s">
+    <row r="53" ht="13" customHeight="1" spans="2:14">
+      <c r="B53" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" ht="13" customHeight="1" spans="2:14">
-      <c r="B54" s="3" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="L54" s="3"/>
-      <c r="M54" s="13" t="s">
+      <c r="L53" s="3"/>
+      <c r="M53" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>370</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="数据集" sheetId="10" r:id="rId7"/>
     <sheet name="问题划分" sheetId="12" r:id="rId8"/>
     <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
+    <sheet name="NLP" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="379">
   <si>
     <r>
       <rPr>
@@ -2178,60 +2179,18 @@
     <t>自动插秧机的株距和行距</t>
   </si>
   <si>
-    <t>人脸识别</t>
-  </si>
-  <si>
-    <t>FaceNet</t>
-  </si>
-  <si>
-    <t>sklearn &amp; tensorflow</t>
-  </si>
-  <si>
-    <t>目标检测-人脸识别</t>
-  </si>
-  <si>
-    <t>只能用于验证理论，不能用于实际项目，因为精度不是很高</t>
-  </si>
-  <si>
-    <t>城市道路分割</t>
-  </si>
-  <si>
-    <t>DeepLab_v3+</t>
-  </si>
-  <si>
-    <t>图像分割</t>
-  </si>
-  <si>
-    <t>图片文字识别</t>
-  </si>
-  <si>
-    <t>CRN+CTC</t>
-  </si>
-  <si>
-    <t>ocr-文字识别</t>
-  </si>
-  <si>
-    <t>自训练</t>
-  </si>
-  <si>
-    <t>DB_CRN+CTC</t>
-  </si>
-  <si>
-    <t>ocr-文字检测+文字识别</t>
+    <t>分词</t>
+  </si>
+  <si>
+    <t>jieba</t>
+  </si>
+  <si>
+    <t>npl-分词</t>
   </si>
   <si>
     <t>第三方库</t>
   </si>
   <si>
-    <t>分词</t>
-  </si>
-  <si>
-    <t>jieba</t>
-  </si>
-  <si>
-    <t>npl-分词</t>
-  </si>
-  <si>
     <t>词频统计</t>
   </si>
   <si>
@@ -2254,6 +2213,9 @@
   </si>
   <si>
     <t>TextRank</t>
+  </si>
+  <si>
+    <t>机器学习</t>
   </si>
   <si>
     <t>垃圾邮件识别-邮件内容</t>
@@ -2510,7 +2472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2522,7 +2484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3027,24 +2989,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3052,18 +3029,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3085,25 +3050,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3112,7 +3077,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -3127,19 +3092,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3151,16 +3116,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3490,283 +3455,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="34"/>
+      <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3776,63 +3741,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="29" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="33" t="s">
+    <row r="40" s="30" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="33"/>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="34"/>
+      <c r="B41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="33"/>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="34"/>
+      <c r="B42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3845,6 +3810,251 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M20:M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="22.3893805309735" customWidth="1"/>
+    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
+    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
+    <col min="5" max="5" width="22.858407079646" customWidth="1"/>
+    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
+    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
+    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
+    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
+    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
+    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
+    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:14">
+      <c r="B8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" ht="27" spans="2:14">
+      <c r="B14" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="2:14">
+      <c r="B15" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3868,176 +4078,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="41" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="42" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="29" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" s="29" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="33" t="s">
+    <row r="13" s="30" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" s="30" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="42" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" s="30" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="29" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="30" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="44"/>
+      <c r="B17" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="45"/>
+      <c r="B18" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" s="29" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" s="30" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4075,118 +4285,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" s="29" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -4237,53 +4447,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" s="29" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="35" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" s="30" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4314,379 +4524,379 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:9">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:9">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:9">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:9">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:9">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:9">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:9">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:9">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="5"/>
+      <c r="I23" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:9">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:9">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:9">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="28"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="28"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4717,51 +4927,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4790,135 +5000,135 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="24" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4949,180 +5159,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="19" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5154,10 +5364,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:XFD53"/>
+  <dimension ref="A12:XFD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -5178,824 +5388,500 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:14">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="6" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="51" customHeight="1"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="5"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="2:14">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4" t="s">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N20" s="4"/>
     </row>
     <row r="21" ht="210" customHeight="1" spans="2:14">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4" t="s">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="4" t="s">
+      <c r="N21" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
     <row r="25" ht="44" customHeight="1" spans="2:14">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="N25" s="5"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="12"/>
+      <c r="C33" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="38" ht="40.5" spans="2:14">
-      <c r="B38" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" ht="21" customHeight="1" spans="2:14">
-      <c r="B40" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N40" s="8"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N49" s="9"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="N50" s="9"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="N51" s="10"/>
-    </row>
-    <row r="52" ht="27" spans="2:14">
-      <c r="B52" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" ht="13" customHeight="1" spans="2:14">
-      <c r="B53" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="376">
   <si>
     <r>
       <rPr>
@@ -2238,15 +2238,6 @@
   <si>
     <t>短文本分类等问题
 多次训练提高精度</t>
-  </si>
-  <si>
-    <t>词向量表示任务</t>
-  </si>
-  <si>
-    <t>gensim</t>
-  </si>
-  <si>
-    <t>np-词向量表示</t>
   </si>
 </sst>
 </file>
@@ -3005,24 +2996,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3076,6 +3064,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3467,7 +3458,7 @@
       <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" ht="27" spans="1:5">
       <c r="A6" s="34"/>
@@ -3477,10 +3468,10 @@
       <c r="C6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34"/>
@@ -3493,7 +3484,7 @@
       <c r="D7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="34"/>
@@ -3506,7 +3497,7 @@
       <c r="D8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" ht="162" spans="1:5">
       <c r="A9" s="34"/>
@@ -3516,10 +3507,10 @@
       <c r="C9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3531,207 +3522,207 @@
       <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="34"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
       <c r="A15" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
       <c r="A16" s="34"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="34"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="34"/>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="34"/>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="34"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="34"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="34"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
       <c r="A30" s="34"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="34"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3748,56 +3739,56 @@
       <c r="B40" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
       <c r="A41" s="34"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="34"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="34"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3817,10 +3808,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:N15"/>
+  <dimension ref="A8:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M21" sqref="M20:M21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -4015,42 +4006,15 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>372</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="2:14">
-      <c r="B15" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4112,11 +4076,11 @@
       <c r="B8" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="34"/>
@@ -4133,11 +4097,11 @@
       <c r="A10" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="42" t="s">
         <v>89</v>
       </c>
@@ -4146,11 +4110,11 @@
       <c r="A11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="29"/>
@@ -4166,7 +4130,7 @@
       <c r="D12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4181,10 +4145,10 @@
       <c r="A14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="37"/>
@@ -4204,37 +4168,37 @@
       <c r="B16" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" s="30" customFormat="1" ht="42" customHeight="1" spans="1:5">
       <c r="A17" s="44"/>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" s="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="45"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -4297,22 +4261,22 @@
       <c r="B6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="34"/>
       <c r="B7" s="38"/>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
       <c r="A8" s="39"/>
@@ -4325,10 +4289,10 @@
       <c r="A10" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="37"/>
@@ -4338,10 +4302,10 @@
       <c r="A13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -4354,49 +4318,49 @@
       <c r="A15" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="37"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="37"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -4456,16 +4420,16 @@
       <c r="A6" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>137</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" s="30" customFormat="1" ht="43" customHeight="1" spans="1:5">
       <c r="A7" s="36" t="s">
@@ -4474,26 +4438,26 @@
       <c r="B7" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="37"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4524,322 +4488,322 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:9">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:9">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:9">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:9">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:9">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:9">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:9">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:9">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:9">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:9">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:9">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="8" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4848,55 +4812,55 @@
       <c r="B29" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
       <c r="B30" s="29"/>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
       <c r="B31" s="29"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4927,51 +4891,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5000,135 +4964,135 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5159,180 +5123,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="15"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="15"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="12" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="13"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="19" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="13"/>
-      <c r="G24" s="14" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="19"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5388,86 +5352,86 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:14">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="9" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>314</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -5487,27 +5451,27 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>323</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -5524,56 +5488,56 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>312</v>
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="51" customHeight="1"/>
+    <row r="16" s="7" customFormat="1" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="5"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
       <c r="B18" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>328</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5610,13 +5574,13 @@
       <c r="B19" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>327</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -5630,13 +5594,13 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>335</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="5" t="s">
         <v>336</v>
       </c>
       <c r="N19" s="4"/>
@@ -5645,13 +5609,13 @@
       <c r="B20" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>337</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>327</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -5665,13 +5629,13 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>335</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="5" t="s">
         <v>336</v>
       </c>
       <c r="N20" s="4"/>
@@ -5680,10 +5644,10 @@
       <c r="B21" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>340</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -5700,27 +5664,27 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>342</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1"/>
-    <row r="23" s="9" customFormat="1"/>
-    <row r="24" s="9" customFormat="1"/>
+    <row r="22" s="7" customFormat="1"/>
+    <row r="23" s="7" customFormat="1"/>
+    <row r="24" s="7" customFormat="1"/>
     <row r="25" ht="44" customHeight="1" spans="2:14">
       <c r="B25" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -5737,7 +5701,7 @@
       <c r="K25" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>347</v>
       </c>
       <c r="M25" s="4" t="s">
@@ -5746,142 +5710,142 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="383">
   <si>
     <r>
       <rPr>
@@ -2200,6 +2200,9 @@
     <t>词性标注</t>
   </si>
   <si>
+    <t>隐马尔可夫/jieba</t>
+  </si>
+  <si>
     <t>npl-词性标注</t>
   </si>
   <si>
@@ -2215,29 +2218,47 @@
     <t>TextRank</t>
   </si>
   <si>
+    <t>获取词向量</t>
+  </si>
+  <si>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t>词嵌入训练</t>
+  </si>
+  <si>
     <t>机器学习</t>
   </si>
   <si>
+    <t>文本分类</t>
+  </si>
+  <si>
+    <t>贝叶斯模型/支持向量机</t>
+  </si>
+  <si>
     <t>垃圾邮件识别-邮件内容</t>
   </si>
   <si>
-    <t>贝叶斯模型/支持向量机</t>
-  </si>
-  <si>
     <t>jieba/sklearn</t>
   </si>
   <si>
     <t>npl-文本分类</t>
   </si>
   <si>
+    <t>深度学习</t>
+  </si>
+  <si>
+    <t>Text CNN</t>
+  </si>
+  <si>
     <t>新闻分类-新闻标题</t>
-  </si>
-  <si>
-    <t>Text CNN</t>
   </si>
   <si>
     <t>短文本分类等问题
 多次训练提高精度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2475,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2469,13 +2490,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,7 +2895,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2880,16 +2919,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2898,123 +2937,132 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3038,40 +3086,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="6" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3083,40 +3131,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3446,283 +3494,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="34"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="34"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="34"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="34"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="34"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="34"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="34"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="34"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="34"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="13"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3732,63 +3780,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="30" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="34" t="s">
+    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="34"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="34"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="34"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3808,17 +3856,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:N14"/>
+  <dimension ref="A8:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.3893805309735" customWidth="1"/>
     <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
-    <col min="4" max="4" width="16.6371681415929" customWidth="1"/>
+    <col min="4" max="4" width="33.3805309734513" customWidth="1"/>
     <col min="5" max="5" width="22.858407079646" customWidth="1"/>
     <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
     <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
@@ -3894,7 +3942,7 @@
         <v>326</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3902,7 +3950,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
@@ -3914,10 +3962,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>326</v>
@@ -3929,7 +3977,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
@@ -3939,10 +3987,10 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>326</v>
@@ -3954,7 +4002,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
@@ -3962,59 +4010,94 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" ht="20" customHeight="1" spans="1:14">
-      <c r="A13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="15" spans="2:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:14">
+      <c r="A17" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" ht="27" spans="2:14">
-      <c r="B14" s="4" t="s">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" ht="27" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="C18" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>375</v>
+      <c r="N18" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4042,176 +4125,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="42" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="30" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" s="30" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="34" t="s">
+    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" s="30" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="43" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="30" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="44"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="47"/>
+      <c r="B17" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="22" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="19" t="s">
+    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="48"/>
+      <c r="B18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" s="30" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4249,118 +4332,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" s="30" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -4411,53 +4494,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" s="30" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4488,379 +4571,379 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:9">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:9">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:9">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:9">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:9">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:9">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:9">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:9">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:9">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:9">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="9" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:9">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="9" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:9">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="9" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="9" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="29"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="29"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="10"/>
+      <c r="I31" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4891,51 +4974,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4964,135 +5047,135 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="26" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="26" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5123,180 +5206,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="16" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="14"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="16" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="16" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="16" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="12"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="12"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="16" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="12"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="15" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="12"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="15"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="18" t="s">
+      <c r="H23" s="16"/>
+      <c r="I23" s="21" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="15"/>
+      <c r="G24" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5352,500 +5435,500 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:14">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="9"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="5" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="11" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="5" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" s="7" customFormat="1" ht="51" customHeight="1"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="9"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="12"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="N19" s="4"/>
+      <c r="N19" s="12"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="2:14">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" ht="210" customHeight="1" spans="2:14">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="5" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="11" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1"/>
-    <row r="23" s="7" customFormat="1"/>
-    <row r="24" s="7" customFormat="1"/>
+    <row r="22" s="8" customFormat="1"/>
+    <row r="23" s="8" customFormat="1"/>
+    <row r="24" s="8" customFormat="1"/>
     <row r="25" ht="44" customHeight="1" spans="2:14">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -2218,15 +2218,6 @@
     <t>TextRank</t>
   </si>
   <si>
-    <t>获取词向量</t>
-  </si>
-  <si>
-    <t>Word2Vec</t>
-  </si>
-  <si>
-    <t>词嵌入训练</t>
-  </si>
-  <si>
     <t>机器学习</t>
   </si>
   <si>
@@ -2256,6 +2247,16 @@
   <si>
     <t>短文本分类等问题
 多次训练提高精度</t>
+  </si>
+  <si>
+    <t>给定一个词找到一个相似的词</t>
+  </si>
+  <si>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词嵌入训练/词向量训练
+</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -2475,7 +2476,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2490,19 +2491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2895,7 +2890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2919,16 +2914,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2937,85 +2932,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3026,43 +3021,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3086,40 +3081,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3131,40 +3126,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3856,247 +3851,247 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:N38"/>
+  <dimension ref="B8:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.3893805309735" customWidth="1"/>
-    <col min="3" max="3" width="25.5398230088496" customWidth="1"/>
-    <col min="4" max="4" width="33.3805309734513" customWidth="1"/>
-    <col min="5" max="5" width="22.858407079646" customWidth="1"/>
-    <col min="6" max="6" width="10.4690265486726" customWidth="1"/>
-    <col min="7" max="7" width="8.36283185840708" customWidth="1"/>
-    <col min="8" max="8" width="14.6814159292035" customWidth="1"/>
-    <col min="9" max="9" width="9.24778761061947" customWidth="1"/>
-    <col min="10" max="10" width="17.7610619469027" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="35.8495575221239" customWidth="1"/>
-    <col min="13" max="13" width="13.3628318584071" customWidth="1"/>
-    <col min="14" max="14" width="20.929203539823" customWidth="1"/>
+    <col min="3" max="3" width="22.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5398230088496" customWidth="1"/>
+    <col min="5" max="5" width="33.3805309734513" customWidth="1"/>
+    <col min="6" max="6" width="22.858407079646" customWidth="1"/>
+    <col min="7" max="7" width="10.4690265486726" customWidth="1"/>
+    <col min="8" max="8" width="8.36283185840708" customWidth="1"/>
+    <col min="9" max="9" width="14.6814159292035" customWidth="1"/>
+    <col min="10" max="10" width="9.24778761061947" customWidth="1"/>
+    <col min="11" max="11" width="17.7610619469027" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="35.8495575221239" customWidth="1"/>
+    <col min="14" max="14" width="13.3628318584071" customWidth="1"/>
+    <col min="15" max="15" width="20.929203539823" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:14">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="3:15">
+      <c r="C8" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="3:15">
+      <c r="C9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="3:15">
+      <c r="C10" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="3:15">
+      <c r="C11" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="1" t="s">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:15">
+      <c r="B17" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" ht="27" spans="2:15">
+      <c r="B18" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="1:14">
-      <c r="A17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" ht="27" spans="1:14">
-      <c r="A18" s="5" t="s">
+      <c r="O18" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="23" ht="27" spans="3:15">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="4" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" t="s">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
         <v>382</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="392">
   <si>
     <r>
       <rPr>
@@ -2185,7 +2185,7 @@
     <t>jieba</t>
   </si>
   <si>
-    <t>npl-分词</t>
+    <t>nlp-分词</t>
   </si>
   <si>
     <t>第三方库</t>
@@ -2194,7 +2194,7 @@
     <t>词频统计</t>
   </si>
   <si>
-    <t>npl-词频统计</t>
+    <t>nlp-词频统计</t>
   </si>
   <si>
     <t>词性标注</t>
@@ -2203,7 +2203,7 @@
     <t>隐马尔可夫/jieba</t>
   </si>
   <si>
-    <t>npl-词性标注</t>
+    <t>nlp-词性标注</t>
   </si>
   <si>
     <t>关键词提取</t>
@@ -2212,12 +2212,22 @@
     <t>TF-IDF</t>
   </si>
   <si>
-    <t>npl-关键词提取</t>
+    <t>nlp-关键词提取</t>
   </si>
   <si>
     <t>TextRank</t>
   </si>
   <si>
+    <t>给定一个词找到一个相似的词</t>
+  </si>
+  <si>
+    <t>Word2Vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词嵌入训练/词向量训练
+</t>
+  </si>
+  <si>
     <t>机器学习</t>
   </si>
   <si>
@@ -2233,7 +2243,7 @@
     <t>jieba/sklearn</t>
   </si>
   <si>
-    <t>npl-文本分类</t>
+    <t>nlp-文本分类</t>
   </si>
   <si>
     <t>深度学习</t>
@@ -2249,14 +2259,31 @@
 多次训练提高精度</t>
   </si>
   <si>
-    <t>给定一个词找到一个相似的词</t>
-  </si>
-  <si>
-    <t>Word2Vec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词嵌入训练/词向量训练
-</t>
+    <t>利用训练数据集，对模型训练，从而实现对中文评论语句情感分析。</t>
+  </si>
+  <si>
+    <t>LSTM-长短期记忆</t>
+  </si>
+  <si>
+    <t>情绪分为正面、负面两种</t>
+  </si>
+  <si>
+    <t>nlp-文本情感分析</t>
+  </si>
+  <si>
+    <t>参考md文件</t>
+  </si>
+  <si>
+    <t>令牌分类</t>
+  </si>
+  <si>
+    <t>ERNIE - 基于Transformer</t>
+  </si>
+  <si>
+    <t>从快递单信息中抽取人名、地址、电话号码</t>
+  </si>
+  <si>
+    <t>nlp-命名实体识别</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -2272,10 +2299,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2491,13 +2526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2884,137 +2919,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3022,22 +3057,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3087,19 +3125,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3132,7 +3170,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3489,283 +3527,283 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="162" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:5">
-      <c r="A10" s="37"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="51" customHeight="1"/>
     <row r="12" ht="28" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="15" ht="44" customHeight="1" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="29" customHeight="1" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="37"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="37"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="37"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customFormat="1" spans="1:5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" customFormat="1" spans="1:5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="16"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="33" ht="38.65" spans="1:5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="35" ht="38.65" spans="1:5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="37" spans="3:4">
       <c r="C37" t="s">
@@ -3775,63 +3813,63 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" s="33" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A40" s="37" t="s">
+    <row r="40" s="34" customFormat="1" ht="99" customHeight="1" spans="1:5">
+      <c r="A40" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="41" ht="67.5" spans="1:5">
-      <c r="A41" s="37"/>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="37"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="37"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3851,24 +3889,24 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:O38"/>
+  <dimension ref="B8:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="22.3893805309735" customWidth="1"/>
+    <col min="3" max="3" width="46.4601769911504" customWidth="1"/>
     <col min="4" max="4" width="25.5398230088496" customWidth="1"/>
-    <col min="5" max="5" width="33.3805309734513" customWidth="1"/>
+    <col min="5" max="5" width="47.5575221238938" customWidth="1"/>
     <col min="6" max="6" width="22.858407079646" customWidth="1"/>
     <col min="7" max="7" width="10.4690265486726" customWidth="1"/>
     <col min="8" max="8" width="8.36283185840708" customWidth="1"/>
     <col min="9" max="9" width="14.6814159292035" customWidth="1"/>
     <col min="10" max="10" width="9.24778761061947" customWidth="1"/>
     <col min="11" max="11" width="17.7610619469027" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="12" max="12" width="29.6902654867257" customWidth="1"/>
     <col min="13" max="13" width="35.8495575221239" customWidth="1"/>
     <col min="14" max="14" width="13.3628318584071" customWidth="1"/>
     <col min="15" max="15" width="20.929203539823" customWidth="1"/>
@@ -4005,94 +4043,154 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="2:15">
-      <c r="B17" s="2" t="s">
+    <row r="17" ht="27" spans="3:15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:15">
+      <c r="B21" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="E21" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" ht="27" spans="2:15">
-      <c r="B18" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" ht="27" spans="2:15">
+      <c r="B22" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="M22" s="5"/>
+      <c r="N22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="2:15">
+      <c r="B24" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="6" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" ht="27" spans="3:15">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" t="s">
-        <v>382</v>
+      <c r="C26" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4120,176 +4218,176 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="45" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="46" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" ht="40" customHeight="1" spans="1:5">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" s="33" customFormat="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" s="33" customFormat="1" ht="78" customHeight="1" spans="1:5">
-      <c r="A14" s="37" t="s">
+    <row r="13" s="34" customFormat="1" ht="18" customHeight="1" spans="1:5">
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" s="34" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A14" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-    </row>
-    <row r="16" s="33" customFormat="1" ht="67.5" spans="1:5">
-      <c r="A16" s="46" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" s="34" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+    </row>
+    <row r="16" s="34" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A16" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" s="33" customFormat="1" ht="42" customHeight="1" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="22" t="s">
+    <row r="17" s="34" customFormat="1" ht="42" customHeight="1" spans="1:5">
+      <c r="A17" s="48"/>
+      <c r="B17" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" s="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="48"/>
-      <c r="B18" s="22" t="s">
+    <row r="18" s="34" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="49"/>
+      <c r="B18" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" s="33" customFormat="1" ht="41" customHeight="1" spans="1:5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" s="34" customFormat="1" ht="41" customHeight="1" spans="1:5">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4327,118 +4425,118 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" ht="54" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="37"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="27" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" s="33" customFormat="1" ht="20" customHeight="1" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" s="34" customFormat="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="10" ht="38.65" spans="1:5">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="13" ht="38.65" spans="1:5">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" ht="39" customHeight="1"/>
     <row r="15" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="40"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="40"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="20" ht="40.5" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
@@ -4489,53 +4587,53 @@
   </cols>
   <sheetData>
     <row r="5" ht="33" customHeight="1" spans="1:4">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" ht="53" customHeight="1" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" s="33" customFormat="1" ht="43" customHeight="1" spans="1:5">
-      <c r="A7" s="39" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" s="34" customFormat="1" ht="43" customHeight="1" spans="1:5">
+      <c r="A7" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" ht="38.65" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4566,379 +4664,379 @@
   </cols>
   <sheetData>
     <row r="9" spans="2:9">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" ht="150" customHeight="1" spans="2:9">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="11" ht="55" customHeight="1" spans="2:9">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" ht="53" customHeight="1" spans="2:9">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" ht="53" customHeight="1" spans="2:9">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" ht="108" customHeight="1" spans="2:9">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="2:9">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" ht="70" customHeight="1" spans="2:9">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" ht="22" customHeight="1" spans="2:9">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" ht="34" customHeight="1" spans="2:9">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" ht="94.5" spans="2:9">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:9">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" ht="108" spans="2:9">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="27" ht="100" customHeight="1" spans="2:9">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="11"/>
+      <c r="I27" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" ht="46" customHeight="1"/>
     <row r="29" ht="67.5" spans="2:9">
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="30" ht="67.5" spans="2:9">
-      <c r="B30" s="32"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:9">
-      <c r="B31" s="32"/>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="10" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4969,51 +5067,51 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6">
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="4:6">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="4:6">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5042,135 +5140,135 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:6">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" ht="81" spans="2:6">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" ht="27" spans="2:6">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" ht="135" customHeight="1" spans="2:6">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="25" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="76" customHeight="1" spans="2:6">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:6">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" ht="43" customHeight="1" spans="2:6">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:6">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5201,180 +5299,180 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:6">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="9" spans="6:8">
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="6:8">
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="6:8">
-      <c r="F11" s="17"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="6:8">
-      <c r="F12" s="17"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="13" spans="6:8">
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="14" spans="6:8">
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" ht="39" customHeight="1" spans="6:8">
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="6:8">
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="6:8">
-      <c r="F17" s="15"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="6:8">
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="6:8">
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="6:8">
-      <c r="F20" s="15"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="6:9">
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="16" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="6:9">
-      <c r="F22" s="15"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="6:9">
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="17"/>
+      <c r="I23" s="22" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="6:9">
-      <c r="F24" s="15"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="21"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="26" ht="12" customHeight="1"/>
     <row r="29" spans="6:7">
@@ -5430,500 +5528,500 @@
   </cols>
   <sheetData>
     <row r="12" spans="2:14">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="11" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1" spans="2:14">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" ht="49" customHeight="1" spans="2:14">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="15" ht="56" customHeight="1" spans="2:14">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="51" customHeight="1"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="51" customHeight="1"/>
     <row r="17" customFormat="1" ht="40" customHeight="1" spans="2:14">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="10"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" ht="49" customHeight="1" spans="2:14">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" ht="49" customHeight="1" spans="2:14">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11" t="s">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" ht="41" customHeight="1" spans="2:14">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11" t="s">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" ht="210" customHeight="1" spans="2:14">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11" t="s">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="12" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1"/>
-    <row r="23" s="8" customFormat="1"/>
-    <row r="24" s="8" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
     <row r="25" ht="44" customHeight="1" spans="2:14">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="N25" s="12"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/002.Artificial_Intelligence/接口汇总.xlsx
+++ b/002.Artificial_Intelligence/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="9"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="957" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sklearn-公共" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="数据集" sheetId="10" r:id="rId7"/>
     <sheet name="问题划分" sheetId="12" r:id="rId8"/>
     <sheet name="【深度-案例】" sheetId="9" r:id="rId9"/>
-    <sheet name="NLP" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="u